--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C5695-8F0A-4C4A-BD7A-EF76C3B9621C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64BC89-FB22-47FC-9255-1D438A847C77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="技能类型优先级" sheetId="26" r:id="rId2"/>
     <sheet name="技能权重" sheetId="27" r:id="rId3"/>
-    <sheet name="AI参数表" sheetId="28" r:id="rId4"/>
+    <sheet name="参数表" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>sheet名</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AI参数表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ai_skill_type.txt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ai_parameter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,6 +258,50 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_parameter.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLAimHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAimHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +819,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,14 +865,14 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -849,14 +885,14 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -865,18 +901,18 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -920,44 +956,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -979,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -993,13 +1029,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1007,13 +1043,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1021,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,13 +1085,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,13 +1141,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,13 +1169,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6">
         <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,13 +1183,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,13 +1197,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>15</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1194,59 +1230,59 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1486,114 +1522,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.05</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.05</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64BC89-FB22-47FC-9255-1D438A847C77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3354930A-A8F8-4181-A845-087B32287D4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="技能权重" sheetId="27" r:id="rId3"/>
     <sheet name="参数表" sheetId="28" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能权重!$C$1:$C$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
   <si>
     <t>sheet名</t>
   </si>
@@ -303,6 +306,354 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵普攻</t>
+  </si>
+  <si>
+    <t>曹玄亮普攻</t>
+  </si>
+  <si>
+    <t>战斗夏玲普攻</t>
+  </si>
+  <si>
+    <t>项昆仑普攻</t>
+  </si>
+  <si>
+    <t>刘羽禅普攻</t>
+  </si>
+  <si>
+    <t>红莲缇娜普攻</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵普攻</t>
+  </si>
+  <si>
+    <t>黑尔坎普普攻</t>
+  </si>
+  <si>
+    <t>北落师门普攻</t>
+  </si>
+  <si>
+    <t>盖文普攻</t>
+  </si>
+  <si>
+    <t>阎风吒普攻</t>
+  </si>
+  <si>
+    <t>南御夫普攻</t>
+  </si>
+  <si>
+    <t>吉拉普攻</t>
+  </si>
+  <si>
+    <t>吕仙宫普攻</t>
+  </si>
+  <si>
+    <t>阎巧巧普攻</t>
+  </si>
+  <si>
+    <t>诸葛一心普攻</t>
+  </si>
+  <si>
+    <t>姬烟华普攻</t>
+  </si>
+  <si>
+    <t>幻普攻</t>
+  </si>
+  <si>
+    <t>关羽普攻</t>
+  </si>
+  <si>
+    <t>许褚普攻</t>
+  </si>
+  <si>
+    <t>典韦普攻</t>
+  </si>
+  <si>
+    <t>唐流雨普攻</t>
+  </si>
+  <si>
+    <t>李轩辕普攻</t>
+  </si>
+  <si>
+    <t>项羽普攻</t>
+  </si>
+  <si>
+    <t>天使缇娜普攻</t>
+  </si>
+  <si>
+    <t>夏侯渊普攻</t>
+  </si>
+  <si>
+    <t>徐晃普攻</t>
+  </si>
+  <si>
+    <t>张郃普攻</t>
+  </si>
+  <si>
+    <t>张飞普攻</t>
+  </si>
+  <si>
+    <t>夏侯惇普攻</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻</t>
+  </si>
+  <si>
+    <t>石灵明普攻</t>
+  </si>
+  <si>
+    <t>于禁普攻</t>
+  </si>
+  <si>
+    <t>西方龙普攻</t>
+  </si>
+  <si>
+    <t>飞廉普攻</t>
+  </si>
+  <si>
+    <t>噬日普攻</t>
+  </si>
+  <si>
+    <t>食火蜥普攻</t>
+  </si>
+  <si>
+    <t>高顺普攻</t>
+  </si>
+  <si>
+    <t>烈风螳螂普攻</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+  </si>
+  <si>
+    <t>曹玄亮技能1</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能1</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能2</t>
+  </si>
+  <si>
+    <t>项昆仑技能1</t>
+  </si>
+  <si>
+    <t>项昆仑技能2</t>
+  </si>
+  <si>
+    <t>刘羽禅技能1</t>
+  </si>
+  <si>
+    <t>刘羽禅技能2</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能1</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能2</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能1</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能2</t>
+  </si>
+  <si>
+    <t>北落师门技能1</t>
+  </si>
+  <si>
+    <t>北落师门技能2</t>
+  </si>
+  <si>
+    <t>盖文技能1</t>
+  </si>
+  <si>
+    <t>盖文技能2</t>
+  </si>
+  <si>
+    <t>阎风吒技能1</t>
+  </si>
+  <si>
+    <t>阎风吒技能2</t>
+  </si>
+  <si>
+    <t>南御夫技能1</t>
+  </si>
+  <si>
+    <t>南御夫技能2</t>
+  </si>
+  <si>
+    <t>吉拉技能1</t>
+  </si>
+  <si>
+    <t>吉拉技能2</t>
+  </si>
+  <si>
+    <t>吕仙宫技能1</t>
+  </si>
+  <si>
+    <t>吕仙宫技能2</t>
+  </si>
+  <si>
+    <t>阎巧巧技能1</t>
+  </si>
+  <si>
+    <t>阎巧巧技能2</t>
+  </si>
+  <si>
+    <t>诸葛一心技能1</t>
+  </si>
+  <si>
+    <t>诸葛一心技能2</t>
+  </si>
+  <si>
+    <t>姬烟华技能1</t>
+  </si>
+  <si>
+    <t>姬烟华技能2</t>
+  </si>
+  <si>
+    <t>幻技能1</t>
+  </si>
+  <si>
+    <t>幻技能2</t>
+  </si>
+  <si>
+    <t>关羽技能</t>
+  </si>
+  <si>
+    <t>许褚技能</t>
+  </si>
+  <si>
+    <t>典韦技能</t>
+  </si>
+  <si>
+    <t>唐流雨技能</t>
+  </si>
+  <si>
+    <t>李轩辕技能</t>
+  </si>
+  <si>
+    <t>项羽技能</t>
+  </si>
+  <si>
+    <t>天使缇娜技能</t>
+  </si>
+  <si>
+    <t>夏侯渊技能</t>
+  </si>
+  <si>
+    <t>徐晃技能</t>
+  </si>
+  <si>
+    <t>张郃技能</t>
+  </si>
+  <si>
+    <t>张飞技能</t>
+  </si>
+  <si>
+    <t>夏侯惇技能</t>
+  </si>
+  <si>
+    <t>塞伯罗斯技能</t>
+  </si>
+  <si>
+    <t>石灵明技能</t>
+  </si>
+  <si>
+    <t>于禁技能</t>
+  </si>
+  <si>
+    <t>西方龙技能</t>
+  </si>
+  <si>
+    <t>飞廉技能</t>
+  </si>
+  <si>
+    <t>噬日技能</t>
+  </si>
+  <si>
+    <t>食火蜥技能</t>
+  </si>
+  <si>
+    <t>高顺技能</t>
+  </si>
+  <si>
+    <t>烈风螳螂技能</t>
+  </si>
+  <si>
+    <t>怒斩</t>
+  </si>
+  <si>
+    <t>禁断之刃</t>
+  </si>
+  <si>
+    <t>抽刀断水</t>
+  </si>
+  <si>
+    <t>蓄力猛攻</t>
+  </si>
+  <si>
+    <t>狂暴一击</t>
+  </si>
+  <si>
+    <t>殇魂秘术</t>
+  </si>
+  <si>
+    <t>斩灵秘术</t>
+  </si>
+  <si>
+    <t>炼魄秘术</t>
+  </si>
+  <si>
+    <t>回春妙术</t>
+  </si>
+  <si>
+    <t>奇门化伤</t>
+  </si>
+  <si>
+    <t>枕戈坐甲</t>
+  </si>
+  <si>
+    <t>千机乱舞</t>
+  </si>
+  <si>
+    <t>碎玉</t>
+  </si>
+  <si>
+    <t>焚金</t>
+  </si>
+  <si>
+    <t>封脉</t>
+  </si>
+  <si>
+    <t>铁胆灵心</t>
   </si>
 </sst>
 </file>
@@ -1214,46 +1565,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1267,251 +1622,1971 @@
       <c r="F2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1301001</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
+        <v>1306001</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="6">
-        <v>4001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1302001</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
+        <v>1306002</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="6">
-        <v>4001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1301002</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>1306003</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>4001</v>
-      </c>
-      <c r="F6" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1302002</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>1306004</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>4001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1301003</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>1306005</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1302003</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
+        <v>1306006</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="6">
-        <v>4002</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1301004</v>
-      </c>
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>1306007</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1302004</v>
-      </c>
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>1306008</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1301005</v>
-      </c>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>1306009</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1302005</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>1306010</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1301006</v>
-      </c>
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>1306011</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1302006</v>
-      </c>
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>1306012</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1301007</v>
-      </c>
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>1306013</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1302007</v>
-      </c>
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>1306014</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1301008</v>
-      </c>
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>1306015</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1306017</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>1306020</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>1306022</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1307001</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>1307002</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>1307003</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>1307004</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1307005</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>1307006</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1307007</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>1307008</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>1307009</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>1307010</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>1307011</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>1307012</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>1307013</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>1307014</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>1307015</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>1307016</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>1307017</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>1307018</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>1307019</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>1307020</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>1307021</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>1301001</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>1302001</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>1301002</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>1302002</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>1301003</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>1302003</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>1301004</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>1302004</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4105</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>1301005</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="6">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4038</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>1302005</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>1301006</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E53" s="6">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>1302006</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>1301007</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>1302007</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>1301008</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>1302008</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>1301009</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>1302009</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>1301010</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>1302010</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6</v>
+      </c>
+      <c r="D62" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E62" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>1301011</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="6">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>1302011</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="6">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>1301012</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>1302012</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>1301013</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>1302013</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>1301014</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>1302014</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>1301015</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>1302015</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E72" s="6">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>1301017</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>1302017</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>1301020</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>1302020</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>1301022</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>1302022</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>1303001</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>1303002</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="6">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>1303003</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="6">
+        <v>10</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>1303004</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="6">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>1303005</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="6">
+        <v>15</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>1303006</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="6">
+        <v>9</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <v>4105</v>
+      </c>
+      <c r="G84" s="6">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>1303007</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="6">
+        <v>9</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <v>4104</v>
+      </c>
+      <c r="G85" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>1303008</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="6">
+        <v>10</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6">
+        <v>5999.9999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>1303009</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="6">
+        <v>12</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>1303010</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="6">
+        <v>15</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>1303011</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="6">
+        <v>11</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>1303012</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>1303013</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="6">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>1303014</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="6">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>1303015</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="6">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>1303016</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="6">
+        <v>13</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>1303017</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="6">
+        <v>9</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
+        <v>4101</v>
+      </c>
+      <c r="G95" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>1303018</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="6">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>1303019</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="6">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>1303020</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="6">
+        <v>10</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>1303021</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="6">
+        <v>10</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>1304001</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="6">
+        <v>15</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>1304002</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="6">
+        <v>10</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>1304003</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="6">
+        <v>10</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>1304004</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>1304005</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="6">
+        <v>10</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>1304006</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="6">
+        <v>15</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>1304007</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="6">
+        <v>10</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>1304008</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="6">
+        <v>9</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <v>4035</v>
+      </c>
+      <c r="G107" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>1304009</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" s="6">
+        <v>13</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>1304010</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="6">
+        <v>13</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>1304011</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="6">
+        <v>15</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>1304012</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111" s="6">
+        <v>7</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4035</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>1304013</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" s="6">
+        <v>14</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>1304014</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="6">
+        <v>12</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>1304015</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="6">
+        <v>14</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>1304016</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6">
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3354930A-A8F8-4181-A845-087B32287D4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344EAE88-C585-4989-A832-483179F5A329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
   <si>
     <t>sheet名</t>
   </si>
@@ -654,6 +654,960 @@
   </si>
   <si>
     <t>铁胆灵心</t>
+  </si>
+  <si>
+    <t>常服曹焱兵普攻(普通)</t>
+  </si>
+  <si>
+    <t>曹玄亮普攻(普通)</t>
+  </si>
+  <si>
+    <t>战斗夏玲普攻(普通)</t>
+  </si>
+  <si>
+    <t>项昆仑普攻(普通)</t>
+  </si>
+  <si>
+    <t>刘羽禅普攻(普通)</t>
+  </si>
+  <si>
+    <t>红莲缇娜普攻(普通)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵普攻(普通)</t>
+  </si>
+  <si>
+    <t>黑尔坎普普攻(普通)</t>
+  </si>
+  <si>
+    <t>北落师门普攻(普通)</t>
+  </si>
+  <si>
+    <t>盖文普攻(普通)</t>
+  </si>
+  <si>
+    <t>阎风吒普攻(普通)</t>
+  </si>
+  <si>
+    <t>南御夫普攻(普通)</t>
+  </si>
+  <si>
+    <t>吉拉普攻(普通)</t>
+  </si>
+  <si>
+    <t>吕仙宫普攻(普通)</t>
+  </si>
+  <si>
+    <t>阎巧巧普攻(普通)</t>
+  </si>
+  <si>
+    <t>诸葛一心普攻(普通)</t>
+  </si>
+  <si>
+    <t>姬烟华普攻(普通)</t>
+  </si>
+  <si>
+    <t>幻普攻(普通)</t>
+  </si>
+  <si>
+    <t>关羽普攻(普通)</t>
+  </si>
+  <si>
+    <t>许褚普攻(普通)</t>
+  </si>
+  <si>
+    <t>典韦普攻(普通)</t>
+  </si>
+  <si>
+    <t>唐流雨普攻(普通)</t>
+  </si>
+  <si>
+    <t>李轩辕普攻(普通)</t>
+  </si>
+  <si>
+    <t>项羽普攻(普通)</t>
+  </si>
+  <si>
+    <t>天使缇娜普攻(普通)</t>
+  </si>
+  <si>
+    <t>夏侯渊普攻(普通)</t>
+  </si>
+  <si>
+    <t>徐晃普攻(普通)</t>
+  </si>
+  <si>
+    <t>张郃普攻(普通)</t>
+  </si>
+  <si>
+    <t>张飞普攻(普通)</t>
+  </si>
+  <si>
+    <t>夏侯惇普攻(普通)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻(普通)</t>
+  </si>
+  <si>
+    <t>石灵明普攻(普通)</t>
+  </si>
+  <si>
+    <t>于禁普攻(普通)</t>
+  </si>
+  <si>
+    <t>西方龙普攻(普通)</t>
+  </si>
+  <si>
+    <t>飞廉普攻(普通)</t>
+  </si>
+  <si>
+    <t>噬日普攻(普通)</t>
+  </si>
+  <si>
+    <t>食火蜥普攻(普通)</t>
+  </si>
+  <si>
+    <t>高顺普攻(普通)</t>
+  </si>
+  <si>
+    <t>烈风螳螂普攻(普通)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1(普通)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2(普通)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能1(普通)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2(普通)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能1(普通)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能2(普通)</t>
+  </si>
+  <si>
+    <t>项昆仑技能1(普通)</t>
+  </si>
+  <si>
+    <t>项昆仑技能2(普通)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能1(普通)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能2(普通)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能1(普通)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能2(普通)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1(普通)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2(普通)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能1(普通)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能2(普通)</t>
+  </si>
+  <si>
+    <t>北落师门技能1(普通)</t>
+  </si>
+  <si>
+    <t>北落师门技能2(普通)</t>
+  </si>
+  <si>
+    <t>盖文技能1(普通)</t>
+  </si>
+  <si>
+    <t>盖文技能2(普通)</t>
+  </si>
+  <si>
+    <t>阎风吒技能1(普通)</t>
+  </si>
+  <si>
+    <t>阎风吒技能2(普通)</t>
+  </si>
+  <si>
+    <t>南御夫技能1(普通)</t>
+  </si>
+  <si>
+    <t>南御夫技能2(普通)</t>
+  </si>
+  <si>
+    <t>吉拉技能1(普通)</t>
+  </si>
+  <si>
+    <t>吉拉技能2(普通)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能1(普通)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能2(普通)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能1(普通)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能2(普通)</t>
+  </si>
+  <si>
+    <t>关羽技能(普通)</t>
+  </si>
+  <si>
+    <t>许褚技能(普通)</t>
+  </si>
+  <si>
+    <t>典韦技能(普通)</t>
+  </si>
+  <si>
+    <t>唐流雨技能(普通)</t>
+  </si>
+  <si>
+    <t>李轩辕技能(普通)</t>
+  </si>
+  <si>
+    <t>项羽技能(普通)</t>
+  </si>
+  <si>
+    <t>天使缇娜技能(普通)</t>
+  </si>
+  <si>
+    <t>夏侯渊技能(普通)</t>
+  </si>
+  <si>
+    <t>徐晃技能(普通)</t>
+  </si>
+  <si>
+    <t>张郃技能(普通)</t>
+  </si>
+  <si>
+    <t>张飞技能(普通)</t>
+  </si>
+  <si>
+    <t>夏侯惇技能(普通)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯技能(普通)</t>
+  </si>
+  <si>
+    <t>石灵明技能(普通)</t>
+  </si>
+  <si>
+    <t>于禁技能(普通)</t>
+  </si>
+  <si>
+    <t>西方龙技能(普通)</t>
+  </si>
+  <si>
+    <t>飞廉技能(普通)</t>
+  </si>
+  <si>
+    <t>噬日技能(普通)</t>
+  </si>
+  <si>
+    <t>食火蜥技能(普通)</t>
+  </si>
+  <si>
+    <t>高顺技能(普通)</t>
+  </si>
+  <si>
+    <t>烈风螳螂技能(普通)</t>
+  </si>
+  <si>
+    <t>蓄力猛攻(普通)</t>
+  </si>
+  <si>
+    <t>禁断之刃(普通)</t>
+  </si>
+  <si>
+    <t>烙印(普通)</t>
+  </si>
+  <si>
+    <t>背水一战(普通)</t>
+  </si>
+  <si>
+    <t>嗜血(普通)</t>
+  </si>
+  <si>
+    <t>夺魂(普通)</t>
+  </si>
+  <si>
+    <t>怒斩(普通)</t>
+  </si>
+  <si>
+    <t>黄昏之殇(普通)</t>
+  </si>
+  <si>
+    <t>惩戒(普通)</t>
+  </si>
+  <si>
+    <t>断罪(普通)</t>
+  </si>
+  <si>
+    <t>斩灵(普通)</t>
+  </si>
+  <si>
+    <t>炼魄(普通)</t>
+  </si>
+  <si>
+    <t>封脉(普通)</t>
+  </si>
+  <si>
+    <t>救赎(普通)</t>
+  </si>
+  <si>
+    <t>诅咒(普通)</t>
+  </si>
+  <si>
+    <t>祝福(普通)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵普攻(强力)</t>
+  </si>
+  <si>
+    <t>曹玄亮普攻(强力)</t>
+  </si>
+  <si>
+    <t>战斗夏玲普攻(强力)</t>
+  </si>
+  <si>
+    <t>项昆仑普攻(强力)</t>
+  </si>
+  <si>
+    <t>刘羽禅普攻(强力)</t>
+  </si>
+  <si>
+    <t>红莲缇娜普攻(强力)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵普攻(强力)</t>
+  </si>
+  <si>
+    <t>黑尔坎普普攻(强力)</t>
+  </si>
+  <si>
+    <t>北落师门普攻(强力)</t>
+  </si>
+  <si>
+    <t>盖文普攻(强力)</t>
+  </si>
+  <si>
+    <t>阎风吒普攻(强力)</t>
+  </si>
+  <si>
+    <t>南御夫普攻(强力)</t>
+  </si>
+  <si>
+    <t>吉拉普攻(强力)</t>
+  </si>
+  <si>
+    <t>吕仙宫普攻(强力)</t>
+  </si>
+  <si>
+    <t>阎巧巧普攻(强力)</t>
+  </si>
+  <si>
+    <t>诸葛一心普攻(强力)</t>
+  </si>
+  <si>
+    <t>姬烟华普攻(强力)</t>
+  </si>
+  <si>
+    <t>幻普攻(强力)</t>
+  </si>
+  <si>
+    <t>关羽普攻(强力)</t>
+  </si>
+  <si>
+    <t>许褚普攻(强力)</t>
+  </si>
+  <si>
+    <t>典韦普攻(强力)</t>
+  </si>
+  <si>
+    <t>唐流雨普攻(强力)</t>
+  </si>
+  <si>
+    <t>李轩辕普攻(强力)</t>
+  </si>
+  <si>
+    <t>项羽普攻(强力)</t>
+  </si>
+  <si>
+    <t>天使缇娜普攻(强力)</t>
+  </si>
+  <si>
+    <t>夏侯渊普攻(强力)</t>
+  </si>
+  <si>
+    <t>徐晃普攻(强力)</t>
+  </si>
+  <si>
+    <t>张郃普攻(强力)</t>
+  </si>
+  <si>
+    <t>张飞普攻(强力)</t>
+  </si>
+  <si>
+    <t>夏侯惇普攻(强力)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻(强力)</t>
+  </si>
+  <si>
+    <t>石灵明普攻(强力)</t>
+  </si>
+  <si>
+    <t>于禁普攻(强力)</t>
+  </si>
+  <si>
+    <t>西方龙普攻(强力)</t>
+  </si>
+  <si>
+    <t>飞廉普攻(强力)</t>
+  </si>
+  <si>
+    <t>噬日普攻(强力)</t>
+  </si>
+  <si>
+    <t>食火蜥普攻(强力)</t>
+  </si>
+  <si>
+    <t>高顺普攻(强力)</t>
+  </si>
+  <si>
+    <t>烈风螳螂普攻(强力)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1(强力)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2(强力)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能1(强力)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2(强力)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能1(强力)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能2(强力)</t>
+  </si>
+  <si>
+    <t>项昆仑技能1(强力)</t>
+  </si>
+  <si>
+    <t>项昆仑技能2(强力)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能1(强力)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能2(强力)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能1(强力)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能2(强力)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1(强力)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2(强力)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能1(强力)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能2(强力)</t>
+  </si>
+  <si>
+    <t>北落师门技能1(强力)</t>
+  </si>
+  <si>
+    <t>北落师门技能2(强力)</t>
+  </si>
+  <si>
+    <t>盖文技能1(强力)</t>
+  </si>
+  <si>
+    <t>盖文技能2(强力)</t>
+  </si>
+  <si>
+    <t>阎风吒技能1(强力)</t>
+  </si>
+  <si>
+    <t>阎风吒技能2(强力)</t>
+  </si>
+  <si>
+    <t>南御夫技能1(强力)</t>
+  </si>
+  <si>
+    <t>南御夫技能2(强力)</t>
+  </si>
+  <si>
+    <t>吉拉技能1(强力)</t>
+  </si>
+  <si>
+    <t>吉拉技能2(强力)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能1(强力)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能2(强力)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能1(强力)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能2(强力)</t>
+  </si>
+  <si>
+    <t>关羽技能(强力)</t>
+  </si>
+  <si>
+    <t>许褚技能(强力)</t>
+  </si>
+  <si>
+    <t>典韦技能(强力)</t>
+  </si>
+  <si>
+    <t>唐流雨技能(强力)</t>
+  </si>
+  <si>
+    <t>李轩辕技能(强力)</t>
+  </si>
+  <si>
+    <t>项羽技能(强力)</t>
+  </si>
+  <si>
+    <t>天使缇娜技能(强力)</t>
+  </si>
+  <si>
+    <t>夏侯渊技能(强力)</t>
+  </si>
+  <si>
+    <t>徐晃技能(强力)</t>
+  </si>
+  <si>
+    <t>张郃技能(强力)</t>
+  </si>
+  <si>
+    <t>张飞技能(强力)</t>
+  </si>
+  <si>
+    <t>夏侯惇技能(强力)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯技能(强力)</t>
+  </si>
+  <si>
+    <t>石灵明技能(强力)</t>
+  </si>
+  <si>
+    <t>于禁技能(强力)</t>
+  </si>
+  <si>
+    <t>西方龙技能(强力)</t>
+  </si>
+  <si>
+    <t>飞廉技能(强力)</t>
+  </si>
+  <si>
+    <t>噬日技能(强力)</t>
+  </si>
+  <si>
+    <t>食火蜥技能(强力)</t>
+  </si>
+  <si>
+    <t>高顺技能(强力)</t>
+  </si>
+  <si>
+    <t>烈风螳螂技能(强力)</t>
+  </si>
+  <si>
+    <t>蓄力猛攻(强力)</t>
+  </si>
+  <si>
+    <t>禁断之刃(强力)</t>
+  </si>
+  <si>
+    <t>烙印(强力)</t>
+  </si>
+  <si>
+    <t>背水一战(强力)</t>
+  </si>
+  <si>
+    <t>嗜血(强力)</t>
+  </si>
+  <si>
+    <t>夺魂(强力)</t>
+  </si>
+  <si>
+    <t>怒斩(强力)</t>
+  </si>
+  <si>
+    <t>黄昏之殇(强力)</t>
+  </si>
+  <si>
+    <t>惩戒(强力)</t>
+  </si>
+  <si>
+    <t>断罪(强力)</t>
+  </si>
+  <si>
+    <t>斩灵(强力)</t>
+  </si>
+  <si>
+    <t>炼魄(强力)</t>
+  </si>
+  <si>
+    <t>封脉(强力)</t>
+  </si>
+  <si>
+    <t>救赎(强力)</t>
+  </si>
+  <si>
+    <t>诅咒(强力)</t>
+  </si>
+  <si>
+    <t>祝福(强力)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵普攻(教学)</t>
+  </si>
+  <si>
+    <t>曹玄亮普攻(教学)</t>
+  </si>
+  <si>
+    <t>战斗夏玲普攻(教学)</t>
+  </si>
+  <si>
+    <t>项昆仑普攻(教学)</t>
+  </si>
+  <si>
+    <t>刘羽禅普攻(教学)</t>
+  </si>
+  <si>
+    <t>红莲缇娜普攻(教学)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵普攻(教学)</t>
+  </si>
+  <si>
+    <t>黑尔坎普普攻(教学)</t>
+  </si>
+  <si>
+    <t>北落师门普攻(教学)</t>
+  </si>
+  <si>
+    <t>盖文普攻(教学)</t>
+  </si>
+  <si>
+    <t>阎风吒普攻(教学)</t>
+  </si>
+  <si>
+    <t>南御夫普攻(教学)</t>
+  </si>
+  <si>
+    <t>吉拉普攻(教学)</t>
+  </si>
+  <si>
+    <t>吕仙宫普攻(教学)</t>
+  </si>
+  <si>
+    <t>阎巧巧普攻(教学)</t>
+  </si>
+  <si>
+    <t>诸葛一心普攻(教学)</t>
+  </si>
+  <si>
+    <t>姬烟华普攻(教学)</t>
+  </si>
+  <si>
+    <t>幻普攻(教学)</t>
+  </si>
+  <si>
+    <t>关羽普攻(教学)</t>
+  </si>
+  <si>
+    <t>许褚普攻(教学)</t>
+  </si>
+  <si>
+    <t>典韦普攻(教学)</t>
+  </si>
+  <si>
+    <t>唐流雨普攻(教学)</t>
+  </si>
+  <si>
+    <t>李轩辕普攻(教学)</t>
+  </si>
+  <si>
+    <t>项羽普攻(教学)</t>
+  </si>
+  <si>
+    <t>天使缇娜普攻(教学)</t>
+  </si>
+  <si>
+    <t>夏侯渊普攻(教学)</t>
+  </si>
+  <si>
+    <t>徐晃普攻(教学)</t>
+  </si>
+  <si>
+    <t>张郃普攻(教学)</t>
+  </si>
+  <si>
+    <t>张飞普攻(教学)</t>
+  </si>
+  <si>
+    <t>夏侯惇普攻(教学)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻(教学)</t>
+  </si>
+  <si>
+    <t>石灵明普攻(教学)</t>
+  </si>
+  <si>
+    <t>于禁普攻(教学)</t>
+  </si>
+  <si>
+    <t>西方龙普攻(教学)</t>
+  </si>
+  <si>
+    <t>飞廉普攻(教学)</t>
+  </si>
+  <si>
+    <t>噬日普攻(教学)</t>
+  </si>
+  <si>
+    <t>食火蜥普攻(教学)</t>
+  </si>
+  <si>
+    <t>高顺普攻(教学)</t>
+  </si>
+  <si>
+    <t>烈风螳螂普攻(教学)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1(教学)</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2(教学)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能1(教学)</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2(教学)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能1(教学)</t>
+  </si>
+  <si>
+    <t>战斗夏玲技能2(教学)</t>
+  </si>
+  <si>
+    <t>项昆仑技能1(教学)</t>
+  </si>
+  <si>
+    <t>项昆仑技能2(教学)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能1(教学)</t>
+  </si>
+  <si>
+    <t>刘羽禅技能2(教学)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能1(教学)</t>
+  </si>
+  <si>
+    <t>红莲缇娜技能2(教学)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1(教学)</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2(教学)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能1(教学)</t>
+  </si>
+  <si>
+    <t>黑尔坎普技能2(教学)</t>
+  </si>
+  <si>
+    <t>北落师门技能1(教学)</t>
+  </si>
+  <si>
+    <t>北落师门技能2(教学)</t>
+  </si>
+  <si>
+    <t>盖文技能1(教学)</t>
+  </si>
+  <si>
+    <t>盖文技能2(教学)</t>
+  </si>
+  <si>
+    <t>阎风吒技能1(教学)</t>
+  </si>
+  <si>
+    <t>阎风吒技能2(教学)</t>
+  </si>
+  <si>
+    <t>南御夫技能1(教学)</t>
+  </si>
+  <si>
+    <t>南御夫技能2(教学)</t>
+  </si>
+  <si>
+    <t>吉拉技能1(教学)</t>
+  </si>
+  <si>
+    <t>吉拉技能2(教学)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能1(教学)</t>
+  </si>
+  <si>
+    <t>吕仙宫技能2(教学)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能1(教学)</t>
+  </si>
+  <si>
+    <t>阎巧巧技能2(教学)</t>
+  </si>
+  <si>
+    <t>关羽技能(教学)</t>
+  </si>
+  <si>
+    <t>许褚技能(教学)</t>
+  </si>
+  <si>
+    <t>典韦技能(教学)</t>
+  </si>
+  <si>
+    <t>唐流雨技能(教学)</t>
+  </si>
+  <si>
+    <t>李轩辕技能(教学)</t>
+  </si>
+  <si>
+    <t>项羽技能(教学)</t>
+  </si>
+  <si>
+    <t>天使缇娜技能(教学)</t>
+  </si>
+  <si>
+    <t>夏侯渊技能(教学)</t>
+  </si>
+  <si>
+    <t>徐晃技能(教学)</t>
+  </si>
+  <si>
+    <t>张郃技能(教学)</t>
+  </si>
+  <si>
+    <t>张飞技能(教学)</t>
+  </si>
+  <si>
+    <t>夏侯惇技能(教学)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯技能(教学)</t>
+  </si>
+  <si>
+    <t>石灵明技能(教学)</t>
+  </si>
+  <si>
+    <t>于禁技能(教学)</t>
+  </si>
+  <si>
+    <t>西方龙技能(教学)</t>
+  </si>
+  <si>
+    <t>飞廉技能(教学)</t>
+  </si>
+  <si>
+    <t>噬日技能(教学)</t>
+  </si>
+  <si>
+    <t>食火蜥技能(教学)</t>
+  </si>
+  <si>
+    <t>高顺技能(教学)</t>
+  </si>
+  <si>
+    <t>烈风螳螂技能(教学)</t>
+  </si>
+  <si>
+    <t>怒斩(教学)</t>
+  </si>
+  <si>
+    <t>禁断之刃(教学)</t>
+  </si>
+  <si>
+    <t>抽刀断水(教学)</t>
+  </si>
+  <si>
+    <t>蓄力猛攻(教学)</t>
+  </si>
+  <si>
+    <t>狂暴一击(教学)</t>
+  </si>
+  <si>
+    <t>殇魂秘术(教学)</t>
+  </si>
+  <si>
+    <t>斩灵秘术(教学)</t>
+  </si>
+  <si>
+    <t>炼魄秘术(教学)</t>
+  </si>
+  <si>
+    <t>回春妙术(教学)</t>
+  </si>
+  <si>
+    <t>奇门化伤(教学)</t>
+  </si>
+  <si>
+    <t>枕戈坐甲(教学)</t>
+  </si>
+  <si>
+    <t>千机乱舞(教学)</t>
+  </si>
+  <si>
+    <t>碎玉(教学)</t>
+  </si>
+  <si>
+    <t>焚金(教学)</t>
+  </si>
+  <si>
+    <t>封脉(教学)</t>
+  </si>
+  <si>
+    <t>铁胆灵心(教学)</t>
   </si>
 </sst>
 </file>
@@ -788,7 +1742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -817,6 +1771,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -854,7 +1821,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -875,6 +1842,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -891,7 +1861,38 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1565,15 +2566,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
@@ -3589,8 +4590,5531 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2106001</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2106002</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2106003</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2106004</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2106005</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2106006</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2106007</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2106008</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2106009</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2106010</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2106011</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2106012</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2106013</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2106014</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2106015</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2106017</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2106020</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2106022</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2107001</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2107002</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2107003</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2107004</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2107005</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2107006</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2107007</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2107008</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" s="6">
+        <v>1</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2107009</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2107010</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="6">
+        <v>1</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2107011</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2107012</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2107013</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2107014</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2107015</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="6">
+        <v>1</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2107016</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2107017</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2107018</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2107019</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2107020</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C153" s="6">
+        <v>1</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2107021</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2101001</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2102001</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C156" s="6">
+        <v>4</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2101002</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2102002</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C158" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2101003</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" s="6">
+        <v>2</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2102003</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C160" s="6">
+        <v>6</v>
+      </c>
+      <c r="D160" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E160" s="6">
+        <v>3</v>
+      </c>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2101004</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2102004</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C162" s="6">
+        <v>6</v>
+      </c>
+      <c r="D162" s="6">
+        <v>4105</v>
+      </c>
+      <c r="E162" s="6">
+        <v>4</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2101005</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C163" s="6">
+        <v>7</v>
+      </c>
+      <c r="D163" s="6">
+        <v>4038</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2102005</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C164" s="6">
+        <v>1</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2101006</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C165" s="6">
+        <v>6</v>
+      </c>
+      <c r="D165" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E165" s="6">
+        <v>3</v>
+      </c>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2102006</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C166" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2101007</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2102007</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C168" s="6">
+        <v>1</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2101008</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169" s="6">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2102008</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C170" s="6">
+        <v>5</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2101009</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C171" s="6">
+        <v>1</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2102009</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C172" s="6">
+        <v>2</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2101010</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C173" s="6">
+        <v>1</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2102010</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C174" s="6">
+        <v>6</v>
+      </c>
+      <c r="D174" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E174" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2101011</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C175" s="6">
+        <v>7</v>
+      </c>
+      <c r="D175" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2102011</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176" s="6">
+        <v>7</v>
+      </c>
+      <c r="D176" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2101012</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C177" s="6">
+        <v>5</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2102012</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C178" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2101013</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C179" s="6">
+        <v>4</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2102013</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C180" s="6">
+        <v>5</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2101014</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C181" s="6">
+        <v>5</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2102014</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C182" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2101015</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C183" s="6">
+        <v>2</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2102015</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C184" s="6">
+        <v>6</v>
+      </c>
+      <c r="D184" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E184" s="6">
+        <v>3</v>
+      </c>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>2103001</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="6">
+        <v>10</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>2103002</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C186" s="6">
+        <v>10</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>2103003</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C187" s="6">
+        <v>10</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>2103004</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C188" s="6">
+        <v>10</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>2103005</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C189" s="6">
+        <v>15</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>2103006</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C190" s="6">
+        <v>9</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6">
+        <v>4105</v>
+      </c>
+      <c r="G190" s="6">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>2103007</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C191" s="6">
+        <v>9</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6">
+        <v>4104</v>
+      </c>
+      <c r="G191" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>2103008</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C192" s="6">
+        <v>10</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6">
+        <v>5999.9999999999991</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>2103009</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C193" s="6">
+        <v>12</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>2103010</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C194" s="6">
+        <v>15</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>2103011</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C195" s="6">
+        <v>11</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>2103012</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196" s="6">
+        <v>10</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>2103013</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C197" s="6">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>2103014</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C198" s="6">
+        <v>10</v>
+      </c>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>2103015</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C199" s="6">
+        <v>10</v>
+      </c>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>2103016</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C200" s="6">
+        <v>13</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>2103017</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C201" s="6">
+        <v>9</v>
+      </c>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6">
+        <v>4101</v>
+      </c>
+      <c r="G201" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>2103018</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C202" s="6">
+        <v>10</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>2103019</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C203" s="6">
+        <v>12</v>
+      </c>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>2103020</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C204" s="6">
+        <v>10</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>2103021</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C205" s="6">
+        <v>10</v>
+      </c>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>2104001</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C206" s="6">
+        <v>15</v>
+      </c>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>2104002</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C207" s="6">
+        <v>10</v>
+      </c>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>2104003</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C208" s="6">
+        <v>10</v>
+      </c>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>2104004</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C209" s="6">
+        <v>10</v>
+      </c>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>2104005</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C210" s="6">
+        <v>10</v>
+      </c>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>2104006</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C211" s="6">
+        <v>15</v>
+      </c>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>2104007</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C212" s="6">
+        <v>10</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>2104008</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C213" s="6">
+        <v>9</v>
+      </c>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6">
+        <v>4035</v>
+      </c>
+      <c r="G213" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>2104009</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C214" s="6">
+        <v>13</v>
+      </c>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>2104010</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C215" s="6">
+        <v>13</v>
+      </c>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>2104011</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C216" s="6">
+        <v>15</v>
+      </c>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>2104012</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C217" s="6">
+        <v>7</v>
+      </c>
+      <c r="D217" s="6">
+        <v>4035</v>
+      </c>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>2104013</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C218" s="6">
+        <v>14</v>
+      </c>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>2104014</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C219" s="6">
+        <v>12</v>
+      </c>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>2104015</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C220" s="6">
+        <v>14</v>
+      </c>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>2104016</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C221" s="6">
+        <v>11</v>
+      </c>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="8">
+        <v>2006001</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C222" s="6">
+        <v>1</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="8">
+        <v>2006002</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223" s="6">
+        <v>1</v>
+      </c>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="8">
+        <v>2006003</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C224" s="6">
+        <v>1</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="8">
+        <v>2006004</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C225" s="6">
+        <v>1</v>
+      </c>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="8">
+        <v>2006005</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C226" s="6">
+        <v>1</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="8">
+        <v>2006006</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C227" s="6">
+        <v>1</v>
+      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="8">
+        <v>2006007</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C228" s="6">
+        <v>1</v>
+      </c>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="8">
+        <v>2006008</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C229" s="6">
+        <v>1</v>
+      </c>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="8">
+        <v>2006009</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C230" s="6">
+        <v>1</v>
+      </c>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="8">
+        <v>2006010</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C231" s="6">
+        <v>1</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="8">
+        <v>2006011</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C232" s="6">
+        <v>1</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="8">
+        <v>2006012</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1</v>
+      </c>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="8">
+        <v>2006013</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C234" s="6">
+        <v>1</v>
+      </c>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="8">
+        <v>2006014</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C235" s="6">
+        <v>1</v>
+      </c>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="8">
+        <v>2006015</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C236" s="6">
+        <v>1</v>
+      </c>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="8">
+        <v>2006017</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C237" s="6">
+        <v>1</v>
+      </c>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="8">
+        <v>2006020</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C238" s="6">
+        <v>1</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="8">
+        <v>2006022</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C239" s="6">
+        <v>1</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="8">
+        <v>2007001</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C240" s="6">
+        <v>1</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="8">
+        <v>2007002</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C241" s="6">
+        <v>1</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="8">
+        <v>2007003</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C242" s="6">
+        <v>1</v>
+      </c>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="8">
+        <v>2007004</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C243" s="6">
+        <v>1</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="8">
+        <v>2007005</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C244" s="6">
+        <v>1</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="8">
+        <v>2007006</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C245" s="6">
+        <v>1</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="8">
+        <v>2007007</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C246" s="6">
+        <v>1</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="8">
+        <v>2007008</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C247" s="6">
+        <v>1</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="8">
+        <v>2007009</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C248" s="6">
+        <v>1</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="8">
+        <v>2007010</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C249" s="6">
+        <v>1</v>
+      </c>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="8">
+        <v>2007011</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C250" s="6">
+        <v>1</v>
+      </c>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="8">
+        <v>2007012</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C251" s="6">
+        <v>1</v>
+      </c>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="8">
+        <v>2007013</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C252" s="6">
+        <v>1</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="8">
+        <v>2007014</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C253" s="6">
+        <v>1</v>
+      </c>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="8">
+        <v>2007015</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C254" s="6">
+        <v>1</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="8">
+        <v>2007016</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C255" s="6">
+        <v>1</v>
+      </c>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="8">
+        <v>2007017</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C256" s="6">
+        <v>1</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="8">
+        <v>2007018</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C257" s="6">
+        <v>1</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="8">
+        <v>2007019</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C258" s="6">
+        <v>1</v>
+      </c>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="8">
+        <v>2007020</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C259" s="6">
+        <v>1</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="8">
+        <v>2007021</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C260" s="6">
+        <v>1</v>
+      </c>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="8">
+        <v>2001001</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C261" s="6">
+        <v>1</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>2002001</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C262" s="6">
+        <v>4</v>
+      </c>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>2001002</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C263" s="6">
+        <v>1</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>2002002</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C264" s="6">
+        <v>11</v>
+      </c>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>2001003</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C265" s="6">
+        <v>2</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>2002003</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C266" s="6">
+        <v>6</v>
+      </c>
+      <c r="D266" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E266" s="6">
+        <v>3</v>
+      </c>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>2001004</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C267" s="6">
+        <v>1</v>
+      </c>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>2002004</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C268" s="6">
+        <v>6</v>
+      </c>
+      <c r="D268" s="6">
+        <v>4105</v>
+      </c>
+      <c r="E268" s="6">
+        <v>4</v>
+      </c>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>2001005</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C269" s="6">
+        <v>7</v>
+      </c>
+      <c r="D269" s="6">
+        <v>4038</v>
+      </c>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>2002005</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C270" s="6">
+        <v>1</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>2001006</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C271" s="6">
+        <v>6</v>
+      </c>
+      <c r="D271" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E271" s="6">
+        <v>3</v>
+      </c>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>2002006</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C272" s="6">
+        <v>11</v>
+      </c>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>2001007</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C273" s="6">
+        <v>1</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>2002007</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C274" s="6">
+        <v>1</v>
+      </c>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>2001008</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C275" s="6">
+        <v>2</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>2002008</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C276" s="6">
+        <v>5</v>
+      </c>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>2001009</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C277" s="6">
+        <v>1</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>2002009</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C278" s="6">
+        <v>2</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>2001010</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C279" s="6">
+        <v>1</v>
+      </c>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>2002010</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" s="6">
+        <v>6</v>
+      </c>
+      <c r="D280" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E280" s="6">
+        <v>2</v>
+      </c>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>2001011</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C281" s="6">
+        <v>7</v>
+      </c>
+      <c r="D281" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>2002011</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C282" s="6">
+        <v>7</v>
+      </c>
+      <c r="D282" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>2001012</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C283" s="6">
+        <v>5</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>2002012</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C284" s="6">
+        <v>11</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>2001013</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C285" s="6">
+        <v>4</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>2002013</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C286" s="6">
+        <v>5</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>2001014</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C287" s="6">
+        <v>5</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>2002014</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C288" s="6">
+        <v>11</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>2001015</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C289" s="6">
+        <v>2</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>2002015</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C290" s="6">
+        <v>6</v>
+      </c>
+      <c r="D290" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E290" s="6">
+        <v>3</v>
+      </c>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>2003001</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C291" s="6">
+        <v>10</v>
+      </c>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>2003002</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C292" s="6">
+        <v>10</v>
+      </c>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>2003003</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C293" s="6">
+        <v>10</v>
+      </c>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>2003004</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C294" s="6">
+        <v>10</v>
+      </c>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>2003005</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C295" s="6">
+        <v>15</v>
+      </c>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>2003006</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C296" s="6">
+        <v>9</v>
+      </c>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6">
+        <v>4105</v>
+      </c>
+      <c r="G296" s="6">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>2003007</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C297" s="6">
+        <v>9</v>
+      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6">
+        <v>4104</v>
+      </c>
+      <c r="G297" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>2003008</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C298" s="6">
+        <v>10</v>
+      </c>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6">
+        <v>5999.9999999999991</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>2003009</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C299" s="6">
+        <v>12</v>
+      </c>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>2003010</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C300" s="6">
+        <v>15</v>
+      </c>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>2003011</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C301" s="6">
+        <v>11</v>
+      </c>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>2003012</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C302" s="6">
+        <v>10</v>
+      </c>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>2003013</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C303" s="6">
+        <v>10</v>
+      </c>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>2003014</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C304" s="6">
+        <v>10</v>
+      </c>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>2003015</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C305" s="6">
+        <v>10</v>
+      </c>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>2003016</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C306" s="6">
+        <v>13</v>
+      </c>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>2003017</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C307" s="6">
+        <v>9</v>
+      </c>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="6">
+        <v>4101</v>
+      </c>
+      <c r="G307" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>2003018</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C308" s="6">
+        <v>10</v>
+      </c>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>2003019</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C309" s="6">
+        <v>12</v>
+      </c>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>2003020</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C310" s="6">
+        <v>10</v>
+      </c>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>2003021</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C311" s="6">
+        <v>10</v>
+      </c>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>2004001</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C312" s="6">
+        <v>15</v>
+      </c>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>2004002</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C313" s="6">
+        <v>10</v>
+      </c>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>2004003</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C314" s="6">
+        <v>10</v>
+      </c>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>2004004</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C315" s="6">
+        <v>10</v>
+      </c>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>2004005</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C316" s="6">
+        <v>10</v>
+      </c>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>2004006</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C317" s="6">
+        <v>15</v>
+      </c>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>2004007</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C318" s="6">
+        <v>10</v>
+      </c>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>2004008</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C319" s="6">
+        <v>9</v>
+      </c>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6">
+        <v>4035</v>
+      </c>
+      <c r="G319" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>2004009</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C320" s="6">
+        <v>13</v>
+      </c>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>2004010</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C321" s="6">
+        <v>13</v>
+      </c>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>2004011</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C322" s="6">
+        <v>15</v>
+      </c>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>2004012</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C323" s="6">
+        <v>7</v>
+      </c>
+      <c r="D323" s="6">
+        <v>4035</v>
+      </c>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>2004013</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C324" s="6">
+        <v>14</v>
+      </c>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>2004014</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C325" s="6">
+        <v>12</v>
+      </c>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>2004015</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C326" s="6">
+        <v>14</v>
+      </c>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>2004016</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C327" s="6">
+        <v>11</v>
+      </c>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A328" s="8">
+        <v>1906001</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C328" s="6">
+        <v>1</v>
+      </c>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A329" s="8">
+        <v>1906002</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C329" s="6">
+        <v>1</v>
+      </c>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A330" s="8">
+        <v>1906003</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C330" s="6">
+        <v>1</v>
+      </c>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A331" s="8">
+        <v>1906004</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C331" s="6">
+        <v>1</v>
+      </c>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A332" s="8">
+        <v>1906005</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C332" s="6">
+        <v>1</v>
+      </c>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A333" s="8">
+        <v>1906006</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C333" s="6">
+        <v>1</v>
+      </c>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="8">
+        <v>1906007</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C334" s="6">
+        <v>1</v>
+      </c>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A335" s="8">
+        <v>1906008</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C335" s="6">
+        <v>1</v>
+      </c>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A336" s="8">
+        <v>1906009</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C336" s="6">
+        <v>1</v>
+      </c>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="8">
+        <v>1906010</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C337" s="6">
+        <v>1</v>
+      </c>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A338" s="8">
+        <v>1906011</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C338" s="6">
+        <v>1</v>
+      </c>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A339" s="8">
+        <v>1906012</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C339" s="6">
+        <v>1</v>
+      </c>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A340" s="8">
+        <v>1906013</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C340" s="6">
+        <v>1</v>
+      </c>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A341" s="8">
+        <v>1906014</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C341" s="6">
+        <v>1</v>
+      </c>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A342" s="8">
+        <v>1906015</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C342" s="6">
+        <v>1</v>
+      </c>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A343" s="8">
+        <v>1906017</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C343" s="6">
+        <v>1</v>
+      </c>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A344" s="8">
+        <v>1906020</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C344" s="6">
+        <v>1</v>
+      </c>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A345" s="8">
+        <v>1906022</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C345" s="6">
+        <v>1</v>
+      </c>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A346" s="8">
+        <v>1907001</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C346" s="6">
+        <v>1</v>
+      </c>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A347" s="8">
+        <v>1907002</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C347" s="6">
+        <v>1</v>
+      </c>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A348" s="8">
+        <v>1907003</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C348" s="6">
+        <v>1</v>
+      </c>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A349" s="8">
+        <v>1907004</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C349" s="6">
+        <v>1</v>
+      </c>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A350" s="8">
+        <v>1907005</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C350" s="6">
+        <v>1</v>
+      </c>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A351" s="8">
+        <v>1907006</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C351" s="6">
+        <v>1</v>
+      </c>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A352" s="8">
+        <v>1907007</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C352" s="6">
+        <v>1</v>
+      </c>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A353" s="8">
+        <v>1907008</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C353" s="6">
+        <v>1</v>
+      </c>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A354" s="8">
+        <v>1907009</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C354" s="6">
+        <v>1</v>
+      </c>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A355" s="8">
+        <v>1907010</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C355" s="6">
+        <v>1</v>
+      </c>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A356" s="8">
+        <v>1907011</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C356" s="6">
+        <v>1</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A357" s="8">
+        <v>1907012</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C357" s="6">
+        <v>1</v>
+      </c>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A358" s="8">
+        <v>1907013</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C358" s="6">
+        <v>1</v>
+      </c>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A359" s="8">
+        <v>1907014</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C359" s="6">
+        <v>1</v>
+      </c>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A360" s="8">
+        <v>1907015</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360" s="6">
+        <v>1</v>
+      </c>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A361" s="8">
+        <v>1907016</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C361" s="6">
+        <v>1</v>
+      </c>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A362" s="8">
+        <v>1907017</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C362" s="6">
+        <v>1</v>
+      </c>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A363" s="8">
+        <v>1907018</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C363" s="6">
+        <v>1</v>
+      </c>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="8">
+        <v>1907019</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C364" s="6">
+        <v>1</v>
+      </c>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="8">
+        <v>1907020</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C365" s="6">
+        <v>1</v>
+      </c>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A366" s="8">
+        <v>1907021</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C366" s="6">
+        <v>1</v>
+      </c>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A367" s="8">
+        <v>1901001</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C367" s="6">
+        <v>1</v>
+      </c>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A368" s="3">
+        <v>1902001</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C368" s="6">
+        <v>4</v>
+      </c>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A369" s="3">
+        <v>1901002</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C369" s="6">
+        <v>1</v>
+      </c>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="3">
+        <v>1902002</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C370" s="6">
+        <v>11</v>
+      </c>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A371" s="3">
+        <v>1901003</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C371" s="6">
+        <v>2</v>
+      </c>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A372" s="3">
+        <v>1902003</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C372" s="6">
+        <v>6</v>
+      </c>
+      <c r="D372" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E372" s="6">
+        <v>3</v>
+      </c>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A373" s="3">
+        <v>1901004</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C373" s="6">
+        <v>1</v>
+      </c>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A374" s="3">
+        <v>1902004</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C374" s="6">
+        <v>6</v>
+      </c>
+      <c r="D374" s="6">
+        <v>4105</v>
+      </c>
+      <c r="E374" s="6">
+        <v>4</v>
+      </c>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A375" s="3">
+        <v>1901005</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C375" s="6">
+        <v>7</v>
+      </c>
+      <c r="D375" s="6">
+        <v>4038</v>
+      </c>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A376" s="3">
+        <v>1902005</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C376" s="6">
+        <v>1</v>
+      </c>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A377" s="3">
+        <v>1901006</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C377" s="6">
+        <v>6</v>
+      </c>
+      <c r="D377" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E377" s="6">
+        <v>3</v>
+      </c>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A378" s="3">
+        <v>1902006</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C378" s="6">
+        <v>11</v>
+      </c>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A379" s="3">
+        <v>1901007</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C379" s="6">
+        <v>1</v>
+      </c>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A380" s="3">
+        <v>1902007</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C380" s="6">
+        <v>1</v>
+      </c>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A381" s="3">
+        <v>1901008</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C381" s="6">
+        <v>2</v>
+      </c>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A382" s="3">
+        <v>1902008</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C382" s="6">
+        <v>5</v>
+      </c>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A383" s="3">
+        <v>1901009</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C383" s="6">
+        <v>1</v>
+      </c>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A384" s="3">
+        <v>1902009</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C384" s="6">
+        <v>2</v>
+      </c>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A385" s="3">
+        <v>1901010</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C385" s="6">
+        <v>1</v>
+      </c>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A386" s="3">
+        <v>1902010</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C386" s="6">
+        <v>6</v>
+      </c>
+      <c r="D386" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E386" s="6">
+        <v>2</v>
+      </c>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A387" s="3">
+        <v>1901011</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C387" s="6">
+        <v>7</v>
+      </c>
+      <c r="D387" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A388" s="3">
+        <v>1902011</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C388" s="6">
+        <v>7</v>
+      </c>
+      <c r="D388" s="6">
+        <v>4101</v>
+      </c>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A389" s="3">
+        <v>1901012</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C389" s="6">
+        <v>5</v>
+      </c>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A390" s="3">
+        <v>1902012</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C390" s="6">
+        <v>11</v>
+      </c>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A391" s="3">
+        <v>1901013</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C391" s="6">
+        <v>4</v>
+      </c>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A392" s="3">
+        <v>1902013</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C392" s="6">
+        <v>5</v>
+      </c>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A393" s="3">
+        <v>1901014</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C393" s="6">
+        <v>5</v>
+      </c>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A394" s="3">
+        <v>1902014</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C394" s="6">
+        <v>11</v>
+      </c>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A395" s="3">
+        <v>1901015</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C395" s="6">
+        <v>2</v>
+      </c>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A396" s="3">
+        <v>1902015</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C396" s="6">
+        <v>6</v>
+      </c>
+      <c r="D396" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E396" s="6">
+        <v>3</v>
+      </c>
+      <c r="F396" s="6"/>
+      <c r="G396" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A397" s="3">
+        <v>1903001</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C397" s="6">
+        <v>10</v>
+      </c>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A398" s="3">
+        <v>1903002</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C398" s="6">
+        <v>10</v>
+      </c>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A399" s="3">
+        <v>1903003</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C399" s="6">
+        <v>10</v>
+      </c>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A400" s="3">
+        <v>1903004</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C400" s="6">
+        <v>10</v>
+      </c>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A401" s="3">
+        <v>1903005</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C401" s="6">
+        <v>15</v>
+      </c>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A402" s="3">
+        <v>1903006</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C402" s="6">
+        <v>9</v>
+      </c>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6">
+        <v>4105</v>
+      </c>
+      <c r="G402" s="6">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A403" s="3">
+        <v>1903007</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C403" s="6">
+        <v>9</v>
+      </c>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6">
+        <v>4104</v>
+      </c>
+      <c r="G403" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A404" s="3">
+        <v>1903008</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C404" s="6">
+        <v>10</v>
+      </c>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6">
+        <v>5999.9999999999991</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A405" s="3">
+        <v>1903009</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C405" s="6">
+        <v>12</v>
+      </c>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A406" s="3">
+        <v>1903010</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C406" s="6">
+        <v>15</v>
+      </c>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A407" s="3">
+        <v>1903011</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C407" s="6">
+        <v>11</v>
+      </c>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
+      <c r="G407" s="6">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A408" s="3">
+        <v>1903012</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C408" s="6">
+        <v>10</v>
+      </c>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+      <c r="F408" s="6"/>
+      <c r="G408" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A409" s="3">
+        <v>1903013</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C409" s="6">
+        <v>10</v>
+      </c>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+      <c r="F409" s="6"/>
+      <c r="G409" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A410" s="3">
+        <v>1903014</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C410" s="6">
+        <v>10</v>
+      </c>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A411" s="3">
+        <v>1903015</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C411" s="6">
+        <v>10</v>
+      </c>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A412" s="3">
+        <v>1903016</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C412" s="6">
+        <v>13</v>
+      </c>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+      <c r="F412" s="6"/>
+      <c r="G412" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A413" s="3">
+        <v>1903017</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C413" s="6">
+        <v>9</v>
+      </c>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+      <c r="F413" s="6">
+        <v>4101</v>
+      </c>
+      <c r="G413" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A414" s="3">
+        <v>1903018</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C414" s="6">
+        <v>10</v>
+      </c>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+      <c r="F414" s="6"/>
+      <c r="G414" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A415" s="3">
+        <v>1903019</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C415" s="6">
+        <v>12</v>
+      </c>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A416" s="3">
+        <v>1903020</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C416" s="6">
+        <v>10</v>
+      </c>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A417" s="3">
+        <v>1903021</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C417" s="6">
+        <v>10</v>
+      </c>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+      <c r="F417" s="6"/>
+      <c r="G417" s="6">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A418" s="3">
+        <v>1904001</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C418" s="6">
+        <v>15</v>
+      </c>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+      <c r="F418" s="6"/>
+      <c r="G418" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A419" s="3">
+        <v>1904002</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C419" s="6">
+        <v>10</v>
+      </c>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
+      <c r="F419" s="6"/>
+      <c r="G419" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A420" s="3">
+        <v>1904003</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C420" s="6">
+        <v>10</v>
+      </c>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+      <c r="F420" s="6"/>
+      <c r="G420" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>1904004</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C421" s="6">
+        <v>10</v>
+      </c>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>1904005</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C422" s="6">
+        <v>10</v>
+      </c>
+      <c r="D422" s="6"/>
+      <c r="E422" s="6"/>
+      <c r="F422" s="6"/>
+      <c r="G422" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>1904006</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C423" s="6">
+        <v>15</v>
+      </c>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>1904007</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C424" s="6">
+        <v>10</v>
+      </c>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A425" s="3">
+        <v>1904008</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C425" s="6">
+        <v>9</v>
+      </c>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+      <c r="F425" s="6">
+        <v>4035</v>
+      </c>
+      <c r="G425" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A426" s="3">
+        <v>1904009</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C426" s="6">
+        <v>13</v>
+      </c>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A427" s="3">
+        <v>1904010</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C427" s="6">
+        <v>13</v>
+      </c>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A428" s="3">
+        <v>1904011</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C428" s="6">
+        <v>15</v>
+      </c>
+      <c r="D428" s="6"/>
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A429" s="3">
+        <v>1904012</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C429" s="6">
+        <v>7</v>
+      </c>
+      <c r="D429" s="6">
+        <v>4035</v>
+      </c>
+      <c r="E429" s="6"/>
+      <c r="F429" s="6"/>
+      <c r="G429" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A430" s="3">
+        <v>1904013</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C430" s="6">
+        <v>14</v>
+      </c>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A431" s="3">
+        <v>1904014</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C431" s="6">
+        <v>12</v>
+      </c>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A432" s="3">
+        <v>1904015</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C432" s="6">
+        <v>14</v>
+      </c>
+      <c r="D432" s="6"/>
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A433" s="3">
+        <v>1904016</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C433" s="6">
+        <v>11</v>
+      </c>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A185:A221">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:A327">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A328:A433">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344EAE88-C585-4989-A832-483179F5A329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD446CBC-8362-47C0-817B-B40C876AF494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="540">
   <si>
     <t>sheet名</t>
   </si>
@@ -1608,6 +1608,142 @@
   </si>
   <si>
     <t>铁胆灵心(教学)</t>
+  </si>
+  <si>
+    <t>新手战斗曹玄亮技能1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗曹玄亮技能2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗战斗曹焱兵技能1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗战斗曹焱兵技能2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗北落师门技能1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗塞伯罗斯技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗许褚技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗插槽1追击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗插槽2追击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗阎风吒技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗项昆仑技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗吕仙宫技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的水晶普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵的大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵的普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵的水晶普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的水晶普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军普通伤害</t>
+  </si>
+  <si>
+    <t>鬼将军超级伤害</t>
+  </si>
+  <si>
+    <t>变身鬼将军普通伤害</t>
+  </si>
+  <si>
+    <t>变身鬼将军偷水晶</t>
+  </si>
+  <si>
+    <t>变身鬼将军增加攻击</t>
+  </si>
+  <si>
+    <t>骷髅小兵1普通攻击</t>
+  </si>
+  <si>
+    <t>伏尸将军单体伤害</t>
+  </si>
+  <si>
+    <t>伏尸将军群体伤害</t>
+  </si>
+  <si>
+    <t>石瀑将军单体伤害</t>
+  </si>
+  <si>
+    <t>石瀑将军群体伤害</t>
+  </si>
+  <si>
+    <t>小蜘蛛普通攻击</t>
+  </si>
+  <si>
+    <t>魔导机兵团的大招</t>
+  </si>
+  <si>
+    <t>魔导机兵团的普攻</t>
+  </si>
+  <si>
+    <t>魔导机兵团的水晶普攻</t>
+  </si>
+  <si>
+    <t>山蜘蛛技能1单体伤害</t>
+  </si>
+  <si>
+    <t>山蜘蛛技能2前排伤害</t>
+  </si>
+  <si>
+    <t>山蜘蛛技能3水晶普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1742,7 +1878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1771,19 +1907,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1842,9 +1965,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1861,7 +1982,37 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2296,7 +2447,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2566,15 +2717,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="D450" sqref="D450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
@@ -2604,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2651,7 +2803,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1306001</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2668,7 +2820,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>1306002</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2685,7 +2837,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>1306003</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2702,7 +2854,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>1306004</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2719,7 +2871,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>1306005</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2736,7 +2888,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>1306006</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2753,7 +2905,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>1306007</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2770,7 +2922,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>1306008</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2787,7 +2939,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>1306009</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2804,7 +2956,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>1306010</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2821,7 +2973,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>1306011</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2838,7 +2990,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>1306012</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2855,7 +3007,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>1306013</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2872,7 +3024,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>1306014</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2889,7 +3041,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>1306015</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2906,7 +3058,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>1306017</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2923,7 +3075,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>1306020</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2940,7 +3092,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>1306022</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2957,7 +3109,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>1307001</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2974,7 +3126,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>1307002</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2991,7 +3143,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>1307003</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3008,7 +3160,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>1307004</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3025,7 +3177,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>1307005</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3042,7 +3194,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>1307006</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3059,7 +3211,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>1307007</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3076,7 +3228,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>1307008</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3093,7 +3245,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>1307009</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3110,7 +3262,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>1307010</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3127,7 +3279,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>1307011</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3144,7 +3296,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>1307012</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3161,7 +3313,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>1307013</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3178,7 +3330,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>1307014</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3195,7 +3347,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>1307015</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3212,7 +3364,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>1307016</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3229,7 +3381,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>1307017</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3246,7 +3398,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>1307018</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3263,7 +3415,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>1307019</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -3280,7 +3432,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>1307020</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3297,7 +3449,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>1307021</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3314,7 +3466,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>1301001</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3331,7 +3483,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>1302001</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3348,7 +3500,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>1301002</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3365,7 +3517,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>1302002</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3382,7 +3534,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>1301003</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3399,7 +3551,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>1302003</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3420,7 +3572,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>1301004</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3437,7 +3589,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>1302004</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3458,7 +3610,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>1301005</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3477,7 +3629,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>1302005</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3494,7 +3646,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>1301006</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3515,7 +3667,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>1302006</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3532,7 +3684,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>1301007</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3549,7 +3701,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>1302007</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3566,7 +3718,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>1301008</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3583,7 +3735,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="3">
         <v>1302008</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3600,7 +3752,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
         <v>1301009</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3617,7 +3769,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="3">
         <v>1302009</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3634,7 +3786,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>1301010</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3651,7 +3803,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="3">
         <v>1302010</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3672,7 +3824,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="3">
         <v>1301011</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -3691,7 +3843,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="3">
         <v>1302011</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3710,7 +3862,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="3">
         <v>1301012</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3727,7 +3879,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="3">
         <v>1302012</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3744,7 +3896,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="3">
         <v>1301013</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3761,7 +3913,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="3">
         <v>1302013</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -3778,7 +3930,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="3">
         <v>1301014</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3795,7 +3947,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="3">
         <v>1302014</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3812,7 +3964,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="3">
         <v>1301015</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3829,7 +3981,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="3">
         <v>1302015</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -3850,7 +4002,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="3">
         <v>1301017</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3867,7 +4019,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="3">
         <v>1302017</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -3884,7 +4036,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="3">
         <v>1301020</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -3901,7 +4053,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="3">
         <v>1302020</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -3918,7 +4070,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="3">
         <v>1301022</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -3935,7 +4087,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="3">
         <v>1302022</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -3952,7 +4104,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="3">
         <v>1303001</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -3969,7 +4121,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="3">
         <v>1303002</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -3986,7 +4138,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="3">
         <v>1303003</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4003,7 +4155,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="3">
         <v>1303004</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4020,7 +4172,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="3">
         <v>1303005</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -4037,7 +4189,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="3">
         <v>1303006</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4056,7 +4208,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="3">
         <v>1303007</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -4075,7 +4227,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="3">
         <v>1303008</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4092,7 +4244,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="3">
         <v>1303009</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4109,7 +4261,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="3">
         <v>1303010</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4126,7 +4278,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="3">
         <v>1303011</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -4143,7 +4295,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="3">
         <v>1303012</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4160,7 +4312,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="3">
         <v>1303013</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -4177,7 +4329,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="3">
         <v>1303014</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -4194,7 +4346,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="3">
         <v>1303015</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -4211,7 +4363,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="3">
         <v>1303016</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -4228,7 +4380,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="3">
         <v>1303017</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -4247,7 +4399,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="3">
         <v>1303018</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4264,7 +4416,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="3">
         <v>1303019</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -4281,7 +4433,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="3">
         <v>1303020</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -4298,7 +4450,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="3">
         <v>1303021</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -4315,7 +4467,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="3">
         <v>1304001</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -4332,7 +4484,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="3">
         <v>1304002</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -4349,7 +4501,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="3">
         <v>1304003</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -4366,7 +4518,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="3">
         <v>1304004</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -4383,7 +4535,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="A104" s="3">
         <v>1304005</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -4400,7 +4552,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="A105" s="3">
         <v>1304006</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -4417,7 +4569,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="A106" s="3">
         <v>1304007</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -4434,7 +4586,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="A107" s="3">
         <v>1304008</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -4453,7 +4605,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="A108" s="3">
         <v>1304009</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -4470,7 +4622,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="A109" s="3">
         <v>1304010</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -4487,7 +4639,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="A110" s="3">
         <v>1304011</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -4504,7 +4656,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="A111" s="3">
         <v>1304012</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -4523,7 +4675,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="3">
         <v>1304013</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -4540,7 +4692,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="A113" s="3">
         <v>1304014</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -4557,7 +4709,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+      <c r="A114" s="3">
         <v>1304015</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -4574,7 +4726,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="3">
         <v>1304016</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -4591,7 +4743,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>2106001</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -4608,7 +4760,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="3">
         <v>2106002</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -4625,7 +4777,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="3">
         <v>2106003</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -4642,7 +4794,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="3">
         <v>2106004</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -4659,7 +4811,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="3">
         <v>2106005</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -4676,7 +4828,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="3">
         <v>2106006</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -4693,7 +4845,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="3">
         <v>2106007</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -4710,7 +4862,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="3">
         <v>2106008</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -4727,7 +4879,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>2106009</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4744,7 +4896,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="3">
         <v>2106010</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -4761,7 +4913,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="3">
         <v>2106011</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -4778,7 +4930,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="3">
         <v>2106012</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -4795,7 +4947,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="3">
         <v>2106013</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -4812,7 +4964,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="3">
         <v>2106014</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -4829,7 +4981,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="3">
         <v>2106015</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -4846,7 +4998,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="3">
         <v>2106017</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -4863,7 +5015,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="3">
         <v>2106020</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -4880,7 +5032,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>2106022</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -4897,7 +5049,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="3">
         <v>2107001</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -4914,7 +5066,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="3">
         <v>2107002</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -4931,7 +5083,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="3">
         <v>2107003</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -4948,7 +5100,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="3">
         <v>2107004</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -4965,7 +5117,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="3">
         <v>2107005</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -4982,7 +5134,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="3">
         <v>2107006</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -4999,7 +5151,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="3">
         <v>2107007</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -5016,7 +5168,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="3">
         <v>2107008</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -5033,7 +5185,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="3">
         <v>2107009</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -5050,7 +5202,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="3">
         <v>2107010</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -5067,7 +5219,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="3">
         <v>2107011</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -5084,7 +5236,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="3">
         <v>2107012</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -5101,7 +5253,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="3">
         <v>2107013</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -5118,7 +5270,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="3">
         <v>2107014</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -5135,7 +5287,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="3">
         <v>2107015</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -5152,7 +5304,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="3">
         <v>2107016</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -5169,7 +5321,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="3">
         <v>2107017</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -5186,7 +5338,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="3">
         <v>2107018</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5203,7 +5355,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="3">
         <v>2107019</v>
       </c>
       <c r="B152" s="6" t="s">
@@ -5220,7 +5372,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="3">
         <v>2107020</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5237,7 +5389,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="3">
         <v>2107021</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -5254,7 +5406,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="3">
         <v>2101001</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -5271,7 +5423,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="3">
         <v>2102001</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -5288,7 +5440,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="3">
         <v>2101002</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -5305,7 +5457,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="3">
         <v>2102002</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -5322,7 +5474,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="3">
         <v>2101003</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -5339,7 +5491,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="3">
         <v>2102003</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -5360,7 +5512,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="3">
         <v>2101004</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -5377,7 +5529,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="3">
         <v>2102004</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -5398,7 +5550,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="3">
         <v>2101005</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -5417,7 +5569,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="3">
         <v>2102005</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -5434,7 +5586,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="3">
         <v>2101006</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -5455,7 +5607,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="3">
         <v>2102006</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -5472,7 +5624,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="3">
         <v>2101007</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -5489,7 +5641,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="3">
         <v>2102007</v>
       </c>
       <c r="B168" s="6" t="s">
@@ -5506,7 +5658,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="3">
         <v>2101008</v>
       </c>
       <c r="B169" s="6" t="s">
@@ -5523,7 +5675,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="3">
         <v>2102008</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -5540,7 +5692,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="3">
         <v>2101009</v>
       </c>
       <c r="B171" s="6" t="s">
@@ -5557,7 +5709,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="3">
         <v>2102009</v>
       </c>
       <c r="B172" s="6" t="s">
@@ -5574,7 +5726,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="3">
         <v>2101010</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -5591,7 +5743,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="3">
         <v>2102010</v>
       </c>
       <c r="B174" s="6" t="s">
@@ -5612,7 +5764,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="3">
         <v>2101011</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -5631,7 +5783,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="3">
         <v>2102011</v>
       </c>
       <c r="B176" s="6" t="s">
@@ -5650,7 +5802,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="3">
         <v>2101012</v>
       </c>
       <c r="B177" s="6" t="s">
@@ -5667,7 +5819,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="3">
         <v>2102012</v>
       </c>
       <c r="B178" s="6" t="s">
@@ -5684,7 +5836,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="3">
         <v>2101013</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -5701,7 +5853,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="3">
         <v>2102013</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -5718,7 +5870,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="3">
         <v>2101014</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -5735,7 +5887,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="3">
         <v>2102014</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -5752,7 +5904,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="3">
         <v>2101015</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -5769,7 +5921,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="3">
         <v>2102015</v>
       </c>
       <c r="B184" s="6" t="s">
@@ -5789,7 +5941,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>2103001</v>
       </c>
@@ -5806,7 +5958,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>2103002</v>
       </c>
@@ -5823,7 +5975,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>2103003</v>
       </c>
@@ -5840,7 +5992,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>2103004</v>
       </c>
@@ -5857,7 +6009,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>2103005</v>
       </c>
@@ -5874,7 +6026,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>2103006</v>
       </c>
@@ -5893,7 +6045,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>2103007</v>
       </c>
@@ -5912,7 +6064,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>2103008</v>
       </c>
@@ -5929,7 +6081,7 @@
         <v>5999.9999999999991</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>2103009</v>
       </c>
@@ -5946,7 +6098,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>2103010</v>
       </c>
@@ -5963,7 +6115,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>2103011</v>
       </c>
@@ -5980,7 +6132,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>2103012</v>
       </c>
@@ -5997,7 +6149,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>2103013</v>
       </c>
@@ -6014,7 +6166,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>2103014</v>
       </c>
@@ -6031,7 +6183,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>2103015</v>
       </c>
@@ -6048,7 +6200,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>2103016</v>
       </c>
@@ -6065,7 +6217,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>2103017</v>
       </c>
@@ -6084,7 +6236,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>2103018</v>
       </c>
@@ -6101,7 +6253,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>2103019</v>
       </c>
@@ -6118,7 +6270,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>2103020</v>
       </c>
@@ -6135,7 +6287,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>2103021</v>
       </c>
@@ -6152,7 +6304,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>2104001</v>
       </c>
@@ -6169,7 +6321,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>2104002</v>
       </c>
@@ -6186,7 +6338,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>2104003</v>
       </c>
@@ -6203,7 +6355,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>2104004</v>
       </c>
@@ -6220,7 +6372,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>2104005</v>
       </c>
@@ -6237,7 +6389,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>2104006</v>
       </c>
@@ -6254,7 +6406,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>2104007</v>
       </c>
@@ -6271,7 +6423,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>2104008</v>
       </c>
@@ -6290,7 +6442,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>2104009</v>
       </c>
@@ -6307,7 +6459,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>2104010</v>
       </c>
@@ -6324,7 +6476,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>2104011</v>
       </c>
@@ -6341,7 +6493,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>2104012</v>
       </c>
@@ -6360,7 +6512,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>2104013</v>
       </c>
@@ -6377,7 +6529,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>2104014</v>
       </c>
@@ -6394,7 +6546,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>2104015</v>
       </c>
@@ -6411,7 +6563,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>2104016</v>
       </c>
@@ -6428,8 +6580,8 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="8">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
         <v>2006001</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -6445,8 +6597,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="8">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
         <v>2006002</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -6462,8 +6614,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="8">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
         <v>2006003</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -6479,8 +6631,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="8">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
         <v>2006004</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -6496,8 +6648,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="8">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
         <v>2006005</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -6513,8 +6665,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="8">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
         <v>2006006</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -6530,8 +6682,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="8">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
         <v>2006007</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -6547,8 +6699,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="8">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
         <v>2006008</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -6564,8 +6716,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="8">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
         <v>2006009</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -6581,8 +6733,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="8">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
         <v>2006010</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -6598,8 +6750,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="8">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
         <v>2006011</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -6615,8 +6767,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="8">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
         <v>2006012</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -6632,8 +6784,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="8">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
         <v>2006013</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -6649,8 +6801,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="8">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
         <v>2006014</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -6666,8 +6818,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="8">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
         <v>2006015</v>
       </c>
       <c r="B236" s="6" t="s">
@@ -6683,8 +6835,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="8">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
         <v>2006017</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -6700,8 +6852,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="8">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
         <v>2006020</v>
       </c>
       <c r="B238" s="6" t="s">
@@ -6717,8 +6869,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="8">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
         <v>2006022</v>
       </c>
       <c r="B239" s="6" t="s">
@@ -6734,8 +6886,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="8">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
         <v>2007001</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -6751,8 +6903,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="8">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
         <v>2007002</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -6768,8 +6920,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="8">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
         <v>2007003</v>
       </c>
       <c r="B242" s="6" t="s">
@@ -6785,8 +6937,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="8">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
         <v>2007004</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -6802,8 +6954,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="8">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
         <v>2007005</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -6819,8 +6971,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="8">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
         <v>2007006</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -6836,8 +6988,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="8">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
         <v>2007007</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -6853,8 +7005,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="8">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
         <v>2007008</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -6870,8 +7022,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="8">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
         <v>2007009</v>
       </c>
       <c r="B248" s="6" t="s">
@@ -6887,8 +7039,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="8">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
         <v>2007010</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -6904,8 +7056,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="8">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
         <v>2007011</v>
       </c>
       <c r="B250" s="6" t="s">
@@ -6921,8 +7073,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="8">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
         <v>2007012</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -6938,8 +7090,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="8">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
         <v>2007013</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -6955,8 +7107,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="8">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
         <v>2007014</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -6972,8 +7124,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="8">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
         <v>2007015</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -6989,8 +7141,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="8">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
         <v>2007016</v>
       </c>
       <c r="B255" s="6" t="s">
@@ -7006,8 +7158,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="8">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
         <v>2007017</v>
       </c>
       <c r="B256" s="6" t="s">
@@ -7023,8 +7175,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="8">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
         <v>2007018</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -7040,8 +7192,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="8">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
         <v>2007019</v>
       </c>
       <c r="B258" s="6" t="s">
@@ -7057,8 +7209,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="8">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
         <v>2007020</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -7074,8 +7226,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="8">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
         <v>2007021</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -7091,8 +7243,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="8">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
         <v>2001001</v>
       </c>
       <c r="B261" s="6" t="s">
@@ -7108,7 +7260,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>2002001</v>
       </c>
@@ -7125,7 +7277,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>2001002</v>
       </c>
@@ -7142,7 +7294,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>2002002</v>
       </c>
@@ -7159,7 +7311,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>2001003</v>
       </c>
@@ -7176,7 +7328,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>2002003</v>
       </c>
@@ -7197,7 +7349,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>2001004</v>
       </c>
@@ -7214,7 +7366,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>2002004</v>
       </c>
@@ -7235,7 +7387,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>2001005</v>
       </c>
@@ -7254,7 +7406,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>2002005</v>
       </c>
@@ -7271,7 +7423,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>2001006</v>
       </c>
@@ -7292,7 +7444,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>2002006</v>
       </c>
@@ -7309,7 +7461,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>2001007</v>
       </c>
@@ -7326,7 +7478,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>2002007</v>
       </c>
@@ -7343,7 +7495,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>2001008</v>
       </c>
@@ -7360,7 +7512,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>2002008</v>
       </c>
@@ -7377,7 +7529,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>2001009</v>
       </c>
@@ -7394,7 +7546,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>2002009</v>
       </c>
@@ -7411,7 +7563,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>2001010</v>
       </c>
@@ -7428,7 +7580,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>2002010</v>
       </c>
@@ -7449,7 +7601,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>2001011</v>
       </c>
@@ -7468,7 +7620,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>2002011</v>
       </c>
@@ -7487,7 +7639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>2001012</v>
       </c>
@@ -7504,7 +7656,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>2002012</v>
       </c>
@@ -7521,7 +7673,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>2001013</v>
       </c>
@@ -7538,7 +7690,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>2002013</v>
       </c>
@@ -7555,7 +7707,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>2001014</v>
       </c>
@@ -7572,7 +7724,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>2002014</v>
       </c>
@@ -7589,7 +7741,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>2001015</v>
       </c>
@@ -7606,7 +7758,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>2002015</v>
       </c>
@@ -7627,7 +7779,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>2003001</v>
       </c>
@@ -7644,7 +7796,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>2003002</v>
       </c>
@@ -7661,7 +7813,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>2003003</v>
       </c>
@@ -7678,7 +7830,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>2003004</v>
       </c>
@@ -7695,7 +7847,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>2003005</v>
       </c>
@@ -7712,7 +7864,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>2003006</v>
       </c>
@@ -7731,7 +7883,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>2003007</v>
       </c>
@@ -7750,7 +7902,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>2003008</v>
       </c>
@@ -7767,7 +7919,7 @@
         <v>5999.9999999999991</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>2003009</v>
       </c>
@@ -7784,7 +7936,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>2003010</v>
       </c>
@@ -7801,7 +7953,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>2003011</v>
       </c>
@@ -7818,7 +7970,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>2003012</v>
       </c>
@@ -7835,7 +7987,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>2003013</v>
       </c>
@@ -7852,7 +8004,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>2003014</v>
       </c>
@@ -7869,7 +8021,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>2003015</v>
       </c>
@@ -7886,7 +8038,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>2003016</v>
       </c>
@@ -7903,7 +8055,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>2003017</v>
       </c>
@@ -7922,7 +8074,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>2003018</v>
       </c>
@@ -7939,7 +8091,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>2003019</v>
       </c>
@@ -7956,7 +8108,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>2003020</v>
       </c>
@@ -7973,7 +8125,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>2003021</v>
       </c>
@@ -7990,7 +8142,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>2004001</v>
       </c>
@@ -8007,7 +8159,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>2004002</v>
       </c>
@@ -8024,7 +8176,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>2004003</v>
       </c>
@@ -8041,7 +8193,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>2004004</v>
       </c>
@@ -8058,7 +8210,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>2004005</v>
       </c>
@@ -8075,7 +8227,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>2004006</v>
       </c>
@@ -8092,7 +8244,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>2004007</v>
       </c>
@@ -8109,7 +8261,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>2004008</v>
       </c>
@@ -8128,7 +8280,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>2004009</v>
       </c>
@@ -8145,7 +8297,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>2004010</v>
       </c>
@@ -8162,7 +8314,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>2004011</v>
       </c>
@@ -8179,7 +8331,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>2004012</v>
       </c>
@@ -8198,7 +8350,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>2004013</v>
       </c>
@@ -8215,7 +8367,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>2004014</v>
       </c>
@@ -8232,7 +8384,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>2004015</v>
       </c>
@@ -8249,7 +8401,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>2004016</v>
       </c>
@@ -8266,8 +8418,8 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A328" s="8">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
         <v>1906001</v>
       </c>
       <c r="B328" s="6" t="s">
@@ -8283,8 +8435,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A329" s="8">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
         <v>1906002</v>
       </c>
       <c r="B329" s="6" t="s">
@@ -8300,8 +8452,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A330" s="8">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
         <v>1906003</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -8317,8 +8469,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A331" s="8">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
         <v>1906004</v>
       </c>
       <c r="B331" s="6" t="s">
@@ -8334,8 +8486,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A332" s="8">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
         <v>1906005</v>
       </c>
       <c r="B332" s="6" t="s">
@@ -8351,8 +8503,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A333" s="8">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
         <v>1906006</v>
       </c>
       <c r="B333" s="6" t="s">
@@ -8368,8 +8520,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A334" s="8">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
         <v>1906007</v>
       </c>
       <c r="B334" s="6" t="s">
@@ -8385,8 +8537,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A335" s="8">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
         <v>1906008</v>
       </c>
       <c r="B335" s="6" t="s">
@@ -8402,8 +8554,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A336" s="8">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
         <v>1906009</v>
       </c>
       <c r="B336" s="6" t="s">
@@ -8419,8 +8571,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A337" s="8">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
         <v>1906010</v>
       </c>
       <c r="B337" s="6" t="s">
@@ -8436,8 +8588,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A338" s="8">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
         <v>1906011</v>
       </c>
       <c r="B338" s="6" t="s">
@@ -8453,8 +8605,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="8">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
         <v>1906012</v>
       </c>
       <c r="B339" s="6" t="s">
@@ -8470,8 +8622,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A340" s="8">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
         <v>1906013</v>
       </c>
       <c r="B340" s="6" t="s">
@@ -8487,8 +8639,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A341" s="8">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
         <v>1906014</v>
       </c>
       <c r="B341" s="6" t="s">
@@ -8504,8 +8656,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A342" s="8">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
         <v>1906015</v>
       </c>
       <c r="B342" s="6" t="s">
@@ -8521,8 +8673,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="8">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
         <v>1906017</v>
       </c>
       <c r="B343" s="6" t="s">
@@ -8538,8 +8690,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A344" s="8">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
         <v>1906020</v>
       </c>
       <c r="B344" s="6" t="s">
@@ -8555,8 +8707,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A345" s="8">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
         <v>1906022</v>
       </c>
       <c r="B345" s="6" t="s">
@@ -8572,8 +8724,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A346" s="8">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
         <v>1907001</v>
       </c>
       <c r="B346" s="6" t="s">
@@ -8589,8 +8741,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A347" s="8">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
         <v>1907002</v>
       </c>
       <c r="B347" s="6" t="s">
@@ -8606,8 +8758,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A348" s="8">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
         <v>1907003</v>
       </c>
       <c r="B348" s="6" t="s">
@@ -8623,8 +8775,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A349" s="8">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
         <v>1907004</v>
       </c>
       <c r="B349" s="6" t="s">
@@ -8640,8 +8792,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A350" s="8">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
         <v>1907005</v>
       </c>
       <c r="B350" s="6" t="s">
@@ -8657,8 +8809,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A351" s="8">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
         <v>1907006</v>
       </c>
       <c r="B351" s="6" t="s">
@@ -8674,8 +8826,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A352" s="8">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
         <v>1907007</v>
       </c>
       <c r="B352" s="6" t="s">
@@ -8691,8 +8843,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A353" s="8">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
         <v>1907008</v>
       </c>
       <c r="B353" s="6" t="s">
@@ -8708,8 +8860,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="8">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" s="3">
         <v>1907009</v>
       </c>
       <c r="B354" s="6" t="s">
@@ -8725,8 +8877,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A355" s="8">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" s="3">
         <v>1907010</v>
       </c>
       <c r="B355" s="6" t="s">
@@ -8742,8 +8894,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A356" s="8">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" s="3">
         <v>1907011</v>
       </c>
       <c r="B356" s="6" t="s">
@@ -8759,8 +8911,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A357" s="8">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357" s="3">
         <v>1907012</v>
       </c>
       <c r="B357" s="6" t="s">
@@ -8776,8 +8928,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A358" s="8">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358" s="3">
         <v>1907013</v>
       </c>
       <c r="B358" s="6" t="s">
@@ -8793,8 +8945,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A359" s="8">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359" s="3">
         <v>1907014</v>
       </c>
       <c r="B359" s="6" t="s">
@@ -8810,8 +8962,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="8">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360" s="3">
         <v>1907015</v>
       </c>
       <c r="B360" s="6" t="s">
@@ -8827,8 +8979,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A361" s="8">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361" s="3">
         <v>1907016</v>
       </c>
       <c r="B361" s="6" t="s">
@@ -8844,8 +8996,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="8">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362" s="3">
         <v>1907017</v>
       </c>
       <c r="B362" s="6" t="s">
@@ -8861,8 +9013,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="8">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363" s="3">
         <v>1907018</v>
       </c>
       <c r="B363" s="6" t="s">
@@ -8878,8 +9030,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A364" s="8">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364" s="3">
         <v>1907019</v>
       </c>
       <c r="B364" s="6" t="s">
@@ -8895,8 +9047,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A365" s="8">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365" s="3">
         <v>1907020</v>
       </c>
       <c r="B365" s="6" t="s">
@@ -8912,8 +9064,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A366" s="8">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366" s="3">
         <v>1907021</v>
       </c>
       <c r="B366" s="6" t="s">
@@ -8929,8 +9081,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A367" s="8">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367" s="3">
         <v>1901001</v>
       </c>
       <c r="B367" s="6" t="s">
@@ -8946,7 +9098,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>1902001</v>
       </c>
@@ -8963,7 +9115,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>1901002</v>
       </c>
@@ -8980,7 +9132,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>1902002</v>
       </c>
@@ -8997,7 +9149,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>1901003</v>
       </c>
@@ -9014,7 +9166,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>1902003</v>
       </c>
@@ -9035,7 +9187,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>1901004</v>
       </c>
@@ -9052,7 +9204,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>1902004</v>
       </c>
@@ -9073,7 +9225,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>1901005</v>
       </c>
@@ -9092,7 +9244,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>1902005</v>
       </c>
@@ -9109,7 +9261,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>1901006</v>
       </c>
@@ -9130,7 +9282,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>1902006</v>
       </c>
@@ -9147,7 +9299,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>1901007</v>
       </c>
@@ -9164,7 +9316,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>1902007</v>
       </c>
@@ -9181,7 +9333,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>1901008</v>
       </c>
@@ -9198,7 +9350,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>1902008</v>
       </c>
@@ -9215,7 +9367,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>1901009</v>
       </c>
@@ -9232,7 +9384,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>1902009</v>
       </c>
@@ -9249,7 +9401,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>1901010</v>
       </c>
@@ -9266,7 +9418,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>1902010</v>
       </c>
@@ -9287,7 +9439,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>1901011</v>
       </c>
@@ -9306,7 +9458,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>1902011</v>
       </c>
@@ -9325,7 +9477,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>1901012</v>
       </c>
@@ -9342,7 +9494,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>1902012</v>
       </c>
@@ -9359,7 +9511,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>1901013</v>
       </c>
@@ -9376,7 +9528,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>1902013</v>
       </c>
@@ -9393,7 +9545,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>1901014</v>
       </c>
@@ -9410,7 +9562,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>1902014</v>
       </c>
@@ -9427,7 +9579,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>1901015</v>
       </c>
@@ -9444,7 +9596,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>1902015</v>
       </c>
@@ -9465,7 +9617,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>1903001</v>
       </c>
@@ -9482,7 +9634,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>1903002</v>
       </c>
@@ -9499,7 +9651,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>1903003</v>
       </c>
@@ -9516,7 +9668,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>1903004</v>
       </c>
@@ -9533,7 +9685,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>1903005</v>
       </c>
@@ -9550,7 +9702,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>1903006</v>
       </c>
@@ -9569,7 +9721,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>1903007</v>
       </c>
@@ -9588,7 +9740,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>1903008</v>
       </c>
@@ -9605,7 +9757,7 @@
         <v>5999.9999999999991</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>1903009</v>
       </c>
@@ -9622,7 +9774,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>1903010</v>
       </c>
@@ -9639,7 +9791,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>1903011</v>
       </c>
@@ -9656,7 +9808,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>1903012</v>
       </c>
@@ -9673,7 +9825,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>1903013</v>
       </c>
@@ -9690,7 +9842,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>1903014</v>
       </c>
@@ -9707,7 +9859,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>1903015</v>
       </c>
@@ -9724,7 +9876,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>1903016</v>
       </c>
@@ -9741,7 +9893,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>1903017</v>
       </c>
@@ -9760,7 +9912,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>1903018</v>
       </c>
@@ -9777,7 +9929,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>1903019</v>
       </c>
@@ -9794,7 +9946,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>1903020</v>
       </c>
@@ -9811,7 +9963,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>1903021</v>
       </c>
@@ -9828,7 +9980,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>1904001</v>
       </c>
@@ -9845,7 +9997,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>1904002</v>
       </c>
@@ -9862,7 +10014,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>1904003</v>
       </c>
@@ -9879,7 +10031,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>1904004</v>
       </c>
@@ -9896,7 +10048,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>1904005</v>
       </c>
@@ -9913,7 +10065,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>1904006</v>
       </c>
@@ -9930,7 +10082,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>1904007</v>
       </c>
@@ -9947,7 +10099,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>1904008</v>
       </c>
@@ -9966,7 +10118,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>1904009</v>
       </c>
@@ -9983,7 +10135,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>1904010</v>
       </c>
@@ -10000,7 +10152,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>1904011</v>
       </c>
@@ -10017,7 +10169,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>1904012</v>
       </c>
@@ -10036,7 +10188,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>1904013</v>
       </c>
@@ -10053,7 +10205,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>1904014</v>
       </c>
@@ -10070,7 +10222,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>1904015</v>
       </c>
@@ -10087,7 +10239,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>1904016</v>
       </c>
@@ -10104,16 +10256,671 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434" s="3">
+        <v>2201002</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C434" s="6">
+        <v>1</v>
+      </c>
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435" s="3">
+        <v>2202002</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C435" s="6">
+        <v>1</v>
+      </c>
+      <c r="D435" s="6"/>
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436" s="3">
+        <v>2201007</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C436" s="6">
+        <v>1</v>
+      </c>
+      <c r="D436" s="6"/>
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437" s="3">
+        <v>2202007</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C437" s="6">
+        <v>1</v>
+      </c>
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>2201009</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C438" s="6">
+        <v>1</v>
+      </c>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439" s="3">
+        <v>2203013</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C439" s="6">
+        <v>1</v>
+      </c>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>2203002</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C440" s="6">
+        <v>1</v>
+      </c>
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441" s="3">
+        <v>2204001</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C441" s="6">
+        <v>1</v>
+      </c>
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>2204002</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C442" s="6">
+        <v>1</v>
+      </c>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443" s="3">
+        <v>2201011</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C443" s="6">
+        <v>1</v>
+      </c>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>2201004</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C444" s="6">
+        <v>1</v>
+      </c>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445" s="3">
+        <v>2201014</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C445" s="6">
+        <v>1</v>
+      </c>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>1801001</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C446" s="8">
+        <v>1</v>
+      </c>
+      <c r="D446" s="6"/>
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447" s="3">
+        <v>1802001</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C447" s="8">
+        <v>1</v>
+      </c>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>1803001</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C448" s="8">
+        <v>2</v>
+      </c>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>1801002</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C449" s="8">
+        <v>1</v>
+      </c>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>1802002</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C450" s="8">
+        <v>1</v>
+      </c>
+      <c r="D450" s="6"/>
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" s="3">
+        <v>1803002</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C451" s="8">
+        <v>2</v>
+      </c>
+      <c r="D451" s="6"/>
+      <c r="E451" s="6"/>
+      <c r="F451" s="6"/>
+      <c r="G451" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>1801003</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C452" s="8">
+        <v>1</v>
+      </c>
+      <c r="D452" s="6"/>
+      <c r="E452" s="6"/>
+      <c r="F452" s="6"/>
+      <c r="G452" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>1802003</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C453" s="8">
+        <v>1</v>
+      </c>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6"/>
+      <c r="F453" s="6"/>
+      <c r="G453" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>1803003</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C454" s="8">
+        <v>2</v>
+      </c>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>1801004</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C455" s="8">
+        <v>1</v>
+      </c>
+      <c r="D455" s="6"/>
+      <c r="E455" s="6"/>
+      <c r="F455" s="6"/>
+      <c r="G455" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>1802004</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C456" s="8">
+        <v>1</v>
+      </c>
+      <c r="D456" s="6"/>
+      <c r="E456" s="6"/>
+      <c r="F456" s="6"/>
+      <c r="G456" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>1801005</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C457" s="8">
+        <v>1</v>
+      </c>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
+      <c r="F457" s="6"/>
+      <c r="G457" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>1802005</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C458" s="8">
+        <v>5</v>
+      </c>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
+      <c r="F458" s="6"/>
+      <c r="G458" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>1803005</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C459" s="8">
+        <v>1</v>
+      </c>
+      <c r="D459" s="6"/>
+      <c r="E459" s="6"/>
+      <c r="F459" s="6"/>
+      <c r="G459" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>1801006</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C460" s="8">
+        <v>1</v>
+      </c>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>1801008</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C461" s="8">
+        <v>1</v>
+      </c>
+      <c r="D461" s="6"/>
+      <c r="E461" s="6"/>
+      <c r="F461" s="6"/>
+      <c r="G461" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>1802008</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C462" s="8">
+        <v>1</v>
+      </c>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+      <c r="F462" s="6"/>
+      <c r="G462" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>1801009</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C463" s="8">
+        <v>1</v>
+      </c>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+      <c r="G463" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>1802009</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C464" s="8">
+        <v>1</v>
+      </c>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+      <c r="F464" s="6"/>
+      <c r="G464" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>1801010</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C465" s="8">
+        <v>1</v>
+      </c>
+      <c r="D465" s="6"/>
+      <c r="E465" s="6"/>
+      <c r="F465" s="6"/>
+      <c r="G465" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>1801011</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C466" s="8">
+        <v>1</v>
+      </c>
+      <c r="D466" s="6"/>
+      <c r="E466" s="6"/>
+      <c r="F466" s="6"/>
+      <c r="G466" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>1802011</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C467" s="8">
+        <v>1</v>
+      </c>
+      <c r="D467" s="6"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
+      <c r="G467" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>1803011</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C468" s="8">
+        <v>2</v>
+      </c>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="6"/>
+      <c r="G468" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>1801012</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C469" s="8">
+        <v>1</v>
+      </c>
+      <c r="D469" s="6"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="6"/>
+      <c r="G469" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>1802012</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C470" s="8">
+        <v>1</v>
+      </c>
+      <c r="D470" s="6"/>
+      <c r="E470" s="6"/>
+      <c r="F470" s="6"/>
+      <c r="G470" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471" s="3">
+        <v>1803012</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C471" s="8">
+        <v>2</v>
+      </c>
+      <c r="D471" s="6"/>
+      <c r="E471" s="6"/>
+      <c r="F471" s="6"/>
+      <c r="G471" s="8">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A185:A221">
+  <conditionalFormatting sqref="A4:A433 A472:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:A327">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A328:A433">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A434:A445">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A222:A327">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A434:A445">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A328:A433">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A446:A471">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10124,7 +10931,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10238,7 +11045,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>56</v>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD446CBC-8362-47C0-817B-B40C876AF494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E274A-47C8-4379-B74D-7CE0A33CB149}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="参数表" sheetId="28" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能权重!$C$1:$C$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能权重!$C$1:$C$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="568">
   <si>
     <t>sheet名</t>
   </si>
@@ -1742,7 +1742,118 @@
     <t>山蜘蛛技能2前排伤害</t>
   </si>
   <si>
-    <t>山蜘蛛技能3水晶普攻</t>
+    <t>插槽17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽41</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃技能1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃技能2</t>
+  </si>
+  <si>
+    <t>柠檬精技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山蜘蛛技能3治疗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1982,7 +2093,17 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2447,7 +2568,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2717,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D450" sqref="D450"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4105,44 +4226,44 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1303001</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>147</v>
+        <v>1301041</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="C79" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6">
-        <v>5250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1303002</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>148</v>
+        <v>1302041</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C80" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1303003</v>
+        <v>1303001</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C81" s="6">
         <v>10</v>
@@ -4151,15 +4272,15 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6">
-        <v>5600</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1303004</v>
+        <v>1303002</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C82" s="6">
         <v>10</v>
@@ -4168,172 +4289,172 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1303005</v>
+        <v>1303003</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C83" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6">
-        <v>4500</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1303006</v>
+        <v>1303004</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C84" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6">
-        <v>4105</v>
-      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="6">
-        <v>6200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1303007</v>
+        <v>1303005</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C85" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6">
-        <v>4104</v>
-      </c>
+      <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>5000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1303008</v>
+        <v>1303006</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="6">
+        <v>4105</v>
+      </c>
       <c r="G86" s="6">
-        <v>5999.9999999999991</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1303009</v>
+        <v>1303007</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C87" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6">
+        <v>4104</v>
+      </c>
       <c r="G87" s="6">
-        <v>5500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1303010</v>
+        <v>1303008</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C88" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6">
-        <v>6000</v>
+        <v>5999.9999999999991</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1303011</v>
+        <v>1303009</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C89" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>10600</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1303012</v>
+        <v>1303010</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C90" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6">
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1303013</v>
+        <v>1303011</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <v>1700</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1303014</v>
+        <v>1303012</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C92" s="6">
         <v>10</v>
@@ -4342,15 +4463,15 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6">
-        <v>5450</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1303015</v>
+        <v>1303013</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C93" s="6">
         <v>10</v>
@@ -4359,85 +4480,85 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6">
-        <v>3500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1303016</v>
+        <v>1303014</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C94" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6">
-        <v>7000</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1303017</v>
+        <v>1303015</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C95" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <v>4101</v>
-      </c>
+      <c r="F95" s="6"/>
       <c r="G95" s="6">
-        <v>5000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1303018</v>
+        <v>1303016</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C96" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1303019</v>
+        <v>1303017</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="6">
+        <v>4101</v>
+      </c>
       <c r="G97" s="6">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1303020</v>
+        <v>1303018</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C98" s="6">
         <v>10</v>
@@ -4446,49 +4567,49 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6">
-        <v>6100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1303021</v>
+        <v>1303019</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C99" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6">
-        <v>3650</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1304001</v>
+        <v>1303020</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C100" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6">
-        <v>4500</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1304002</v>
+        <v>1303021</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C101" s="6">
         <v>10</v>
@@ -4497,35 +4618,35 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6">
-        <v>4500</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1304003</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>170</v>
+        <v>1303050</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C102" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6">
-        <v>4500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1304004</v>
+        <v>1304001</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C103" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4536,10 +4657,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1304005</v>
+        <v>1304002</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C104" s="6">
         <v>10</v>
@@ -4553,27 +4674,27 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1304006</v>
+        <v>1304003</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C105" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6">
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1304007</v>
+        <v>1304004</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C106" s="6">
         <v>10</v>
@@ -4582,223 +4703,223 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1304008</v>
+        <v>1304005</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C107" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6">
-        <v>4035</v>
-      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="6">
-        <v>13000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1304009</v>
+        <v>1304006</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C108" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1304010</v>
+        <v>1304007</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C109" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1304011</v>
+        <v>1304008</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C110" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="6">
+        <v>4035</v>
+      </c>
       <c r="G110" s="6">
-        <v>3000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1304012</v>
+        <v>1304009</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C111" s="6">
-        <v>7</v>
-      </c>
-      <c r="D111" s="6">
-        <v>4035</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1304013</v>
+        <v>1304010</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C112" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1304014</v>
+        <v>1304011</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C113" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1304015</v>
+        <v>1304012</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C114" s="6">
-        <v>14</v>
-      </c>
-      <c r="D114" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D114" s="6">
+        <v>4035</v>
+      </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6">
-        <v>2100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1304016</v>
+        <v>1304013</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C115" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6">
-        <v>18000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>2106001</v>
+        <v>1304014</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>396</v>
+        <v>181</v>
       </c>
       <c r="C116" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>2106002</v>
+        <v>1304015</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>397</v>
+        <v>182</v>
       </c>
       <c r="C117" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
-        <v>1500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>2106003</v>
+        <v>1304016</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>398</v>
+        <v>183</v>
       </c>
       <c r="C118" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6">
-        <v>1500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>2106004</v>
+        <v>2106001</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C119" s="6">
         <v>1</v>
@@ -4812,10 +4933,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>2106005</v>
+        <v>2106002</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C120" s="6">
         <v>1</v>
@@ -4829,10 +4950,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>2106006</v>
+        <v>2106003</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C121" s="6">
         <v>1</v>
@@ -4846,10 +4967,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>2106007</v>
+        <v>2106004</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C122" s="6">
         <v>1</v>
@@ -4863,10 +4984,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>2106008</v>
+        <v>2106005</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C123" s="6">
         <v>1</v>
@@ -4880,10 +5001,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>2106009</v>
+        <v>2106006</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C124" s="6">
         <v>1</v>
@@ -4897,10 +5018,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>2106010</v>
+        <v>2106007</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C125" s="6">
         <v>1</v>
@@ -4914,10 +5035,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>2106011</v>
+        <v>2106008</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C126" s="6">
         <v>1</v>
@@ -4931,10 +5052,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>2106012</v>
+        <v>2106009</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C127" s="6">
         <v>1</v>
@@ -4948,10 +5069,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>2106013</v>
+        <v>2106010</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C128" s="6">
         <v>1</v>
@@ -4965,10 +5086,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>2106014</v>
+        <v>2106011</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C129" s="6">
         <v>1</v>
@@ -4982,10 +5103,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>2106015</v>
+        <v>2106012</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C130" s="6">
         <v>1</v>
@@ -4999,10 +5120,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>2106017</v>
+        <v>2106013</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
@@ -5016,10 +5137,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>2106020</v>
+        <v>2106014</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
@@ -5033,10 +5154,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>2106022</v>
+        <v>2106015</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -5050,10 +5171,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>2107001</v>
+        <v>2106017</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C134" s="6">
         <v>1</v>
@@ -5067,10 +5188,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>2107002</v>
+        <v>2106020</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C135" s="6">
         <v>1</v>
@@ -5084,10 +5205,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>2107003</v>
+        <v>2106022</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C136" s="6">
         <v>1</v>
@@ -5101,10 +5222,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>2107004</v>
+        <v>2107001</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C137" s="6">
         <v>1</v>
@@ -5118,10 +5239,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>2107005</v>
+        <v>2107002</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C138" s="6">
         <v>1</v>
@@ -5135,10 +5256,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>2107006</v>
+        <v>2107003</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C139" s="6">
         <v>1</v>
@@ -5152,10 +5273,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>2107007</v>
+        <v>2107004</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C140" s="6">
         <v>1</v>
@@ -5169,10 +5290,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>2107008</v>
+        <v>2107005</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C141" s="6">
         <v>1</v>
@@ -5186,10 +5307,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>2107009</v>
+        <v>2107006</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C142" s="6">
         <v>1</v>
@@ -5203,10 +5324,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>2107010</v>
+        <v>2107007</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C143" s="6">
         <v>1</v>
@@ -5220,10 +5341,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>2107011</v>
+        <v>2107008</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C144" s="6">
         <v>1</v>
@@ -5237,10 +5358,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>2107012</v>
+        <v>2107009</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C145" s="6">
         <v>1</v>
@@ -5254,10 +5375,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>2107013</v>
+        <v>2107010</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C146" s="6">
         <v>1</v>
@@ -5271,10 +5392,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>2107014</v>
+        <v>2107011</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C147" s="6">
         <v>1</v>
@@ -5288,10 +5409,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>2107015</v>
+        <v>2107012</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C148" s="6">
         <v>1</v>
@@ -5305,10 +5426,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>2107016</v>
+        <v>2107013</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C149" s="6">
         <v>1</v>
@@ -5322,10 +5443,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>2107017</v>
+        <v>2107014</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C150" s="6">
         <v>1</v>
@@ -5339,10 +5460,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>2107018</v>
+        <v>2107015</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C151" s="6">
         <v>1</v>
@@ -5356,10 +5477,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>2107019</v>
+        <v>2107016</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C152" s="6">
         <v>1</v>
@@ -5373,10 +5494,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>2107020</v>
+        <v>2107017</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C153" s="6">
         <v>1</v>
@@ -5390,10 +5511,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>2107021</v>
+        <v>2107018</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C154" s="6">
         <v>1</v>
@@ -5407,10 +5528,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>2101001</v>
+        <v>2107019</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C155" s="6">
         <v>1</v>
@@ -5419,32 +5540,32 @@
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>2102001</v>
+        <v>2107020</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C156" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>2101002</v>
+        <v>2107021</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C157" s="6">
         <v>1</v>
@@ -5453,18 +5574,18 @@
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>2102002</v>
+        <v>2101001</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C158" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -5475,13 +5596,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>2101003</v>
+        <v>2102001</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C159" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -5492,20 +5613,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>2102003</v>
+        <v>2101002</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C160" s="6">
-        <v>6</v>
-      </c>
-      <c r="D160" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E160" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6">
         <v>3000</v>
@@ -5513,13 +5630,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>2101004</v>
+        <v>2102002</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C161" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -5530,20 +5647,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>2102004</v>
+        <v>2101003</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C162" s="6">
-        <v>6</v>
-      </c>
-      <c r="D162" s="6">
-        <v>4105</v>
-      </c>
-      <c r="E162" s="6">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6">
         <v>3000</v>
@@ -5551,18 +5664,20 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>2101005</v>
+        <v>2102003</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C163" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D163" s="6">
-        <v>4038</v>
-      </c>
-      <c r="E163" s="6"/>
+        <v>4007</v>
+      </c>
+      <c r="E163" s="6">
+        <v>3</v>
+      </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6">
         <v>3000</v>
@@ -5570,10 +5685,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>2102005</v>
+        <v>2101004</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C164" s="6">
         <v>1</v>
@@ -5582,53 +5697,55 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6">
-        <v>17500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>2101006</v>
+        <v>2102004</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C165" s="6">
         <v>6</v>
       </c>
       <c r="D165" s="6">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E165" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>2102006</v>
+        <v>2101005</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C166" s="6">
-        <v>11</v>
-      </c>
-      <c r="D166" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D166" s="6">
+        <v>4038</v>
+      </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>2101007</v>
+        <v>2102005</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C167" s="6">
         <v>1</v>
@@ -5637,66 +5754,70 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6">
-        <v>2000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>2102007</v>
+        <v>2101006</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C168" s="6">
-        <v>1</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D168" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E168" s="6">
+        <v>3</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>2101008</v>
+        <v>2102006</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C169" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>2102008</v>
+        <v>2101007</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C170" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>2101009</v>
+        <v>2102007</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C171" s="6">
         <v>1</v>
@@ -5705,15 +5826,15 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>2102009</v>
+        <v>2101008</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C172" s="6">
         <v>2</v>
@@ -5722,142 +5843,142 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>2101010</v>
+        <v>2102008</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C173" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>2102010</v>
+        <v>2101009</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C174" s="6">
-        <v>6</v>
-      </c>
-      <c r="D174" s="6">
-        <v>4103</v>
-      </c>
-      <c r="E174" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>2101011</v>
+        <v>2102009</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C175" s="6">
-        <v>7</v>
-      </c>
-      <c r="D175" s="6">
-        <v>4101</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6">
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>2102011</v>
+        <v>2101010</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C176" s="6">
-        <v>7</v>
-      </c>
-      <c r="D176" s="6">
-        <v>4101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>2101012</v>
+        <v>2102010</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C177" s="6">
-        <v>5</v>
-      </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D177" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E177" s="6">
+        <v>2</v>
+      </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>2102012</v>
+        <v>2101011</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C178" s="6">
-        <v>11</v>
-      </c>
-      <c r="D178" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D178" s="6">
+        <v>4101</v>
+      </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>2101013</v>
+        <v>2102011</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C179" s="6">
-        <v>4</v>
-      </c>
-      <c r="D179" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D179" s="6">
+        <v>4101</v>
+      </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>2102013</v>
+        <v>2101012</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C180" s="6">
         <v>5</v>
@@ -5866,138 +5987,138 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>2101014</v>
+        <v>2102012</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C181" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6">
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>2102014</v>
+        <v>2101013</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C182" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>2101015</v>
+        <v>2102013</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C183" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>2102015</v>
+        <v>2101014</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C184" s="6">
-        <v>6</v>
-      </c>
-      <c r="D184" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E184" s="6">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>2103001</v>
+        <v>2102014</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C185" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6">
-        <v>5250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>2103002</v>
+        <v>2101015</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C186" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>2103003</v>
+        <v>2102015</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C187" s="6">
-        <v>10</v>
-      </c>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D187" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E187" s="6">
+        <v>3</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6">
-        <v>5600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>2103004</v>
+        <v>2103001</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C188" s="6">
         <v>10</v>
@@ -6006,189 +6127,189 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>5000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>2103005</v>
+        <v>2103002</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C189" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <v>4500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>2103006</v>
+        <v>2103003</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C190" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="6">
-        <v>4105</v>
-      </c>
+      <c r="F190" s="6"/>
       <c r="G190" s="6">
-        <v>6200</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>2103007</v>
+        <v>2103004</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C191" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="6">
-        <v>4104</v>
-      </c>
+      <c r="F191" s="6"/>
       <c r="G191" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>2103008</v>
+        <v>2103005</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C192" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6">
-        <v>5999.9999999999991</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>2103009</v>
+        <v>2103006</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C193" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="6">
+        <v>4105</v>
+      </c>
       <c r="G193" s="6">
-        <v>5500</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>2103010</v>
+        <v>2103007</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C194" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="6">
+        <v>4104</v>
+      </c>
       <c r="G194" s="6">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>2103011</v>
+        <v>2103008</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C195" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <v>10600</v>
+        <v>5999.9999999999991</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>2103012</v>
+        <v>2103009</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C196" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>9000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>2103013</v>
+        <v>2103010</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C197" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <v>1700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>2103014</v>
+        <v>2103011</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C198" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>5450</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>2103015</v>
+        <v>2103012</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C199" s="6">
         <v>10</v>
@@ -6197,51 +6318,49 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>3500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>2103016</v>
+        <v>2103013</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C200" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
-        <v>7000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>2103017</v>
+        <v>2103014</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C201" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
-      <c r="F201" s="6">
-        <v>4101</v>
-      </c>
+      <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>5000</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>2103018</v>
+        <v>2103015</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C202" s="6">
         <v>10</v>
@@ -6250,49 +6369,51 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>2103019</v>
+        <v>2103016</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C203" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>2103020</v>
+        <v>2103017</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C204" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
+      <c r="F204" s="6">
+        <v>4101</v>
+      </c>
       <c r="G204" s="6">
-        <v>6100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>2103021</v>
+        <v>2103018</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C205" s="6">
         <v>10</v>
@@ -6301,32 +6422,32 @@
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
-        <v>3650</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>2104001</v>
+        <v>2103019</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C206" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6">
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>2104002</v>
+        <v>2103020</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C207" s="6">
         <v>10</v>
@@ -6335,15 +6456,15 @@
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6">
-        <v>4500</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>2104003</v>
+        <v>2103021</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C208" s="6">
         <v>10</v>
@@ -6352,18 +6473,18 @@
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6">
-        <v>4500</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>2104004</v>
+        <v>2104001</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C209" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -6374,10 +6495,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>2104005</v>
+        <v>2104002</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C210" s="6">
         <v>10</v>
@@ -6391,27 +6512,27 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>2104006</v>
+        <v>2104003</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C211" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6">
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>2104007</v>
+        <v>2104004</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C212" s="6">
         <v>10</v>
@@ -6420,223 +6541,223 @@
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>2104008</v>
+        <v>2104005</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C213" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
-      <c r="F213" s="6">
-        <v>4035</v>
-      </c>
+      <c r="F213" s="6"/>
       <c r="G213" s="6">
-        <v>13000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>2104009</v>
+        <v>2104006</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C214" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>2104010</v>
+        <v>2104007</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C215" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>2104011</v>
+        <v>2104008</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C216" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
+      <c r="F216" s="6">
+        <v>4035</v>
+      </c>
       <c r="G216" s="6">
-        <v>3000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>2104012</v>
+        <v>2104009</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C217" s="6">
-        <v>7</v>
-      </c>
-      <c r="D217" s="6">
-        <v>4035</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>2104013</v>
+        <v>2104010</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C218" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>2104014</v>
+        <v>2104011</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C219" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>2104015</v>
+        <v>2104012</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C220" s="6">
-        <v>14</v>
-      </c>
-      <c r="D220" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D220" s="6">
+        <v>4035</v>
+      </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6">
-        <v>2100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>2104016</v>
+        <v>2104013</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C221" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6">
-        <v>18000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>2006001</v>
+        <v>2104014</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>290</v>
+        <v>499</v>
       </c>
       <c r="C222" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>2006002</v>
+        <v>2104015</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>291</v>
+        <v>500</v>
       </c>
       <c r="C223" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6">
-        <v>1500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>2006003</v>
+        <v>2104016</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>292</v>
+        <v>501</v>
       </c>
       <c r="C224" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6">
-        <v>1500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>2006004</v>
+        <v>2006001</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C225" s="6">
         <v>1</v>
@@ -6650,10 +6771,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>2006005</v>
+        <v>2006002</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C226" s="6">
         <v>1</v>
@@ -6667,10 +6788,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>2006006</v>
+        <v>2006003</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C227" s="6">
         <v>1</v>
@@ -6684,10 +6805,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>2006007</v>
+        <v>2006004</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C228" s="6">
         <v>1</v>
@@ -6701,10 +6822,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>2006008</v>
+        <v>2006005</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C229" s="6">
         <v>1</v>
@@ -6718,10 +6839,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>2006009</v>
+        <v>2006006</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C230" s="6">
         <v>1</v>
@@ -6735,10 +6856,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>2006010</v>
+        <v>2006007</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C231" s="6">
         <v>1</v>
@@ -6752,10 +6873,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>2006011</v>
+        <v>2006008</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C232" s="6">
         <v>1</v>
@@ -6769,10 +6890,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>2006012</v>
+        <v>2006009</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C233" s="6">
         <v>1</v>
@@ -6786,10 +6907,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>2006013</v>
+        <v>2006010</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C234" s="6">
         <v>1</v>
@@ -6803,10 +6924,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>2006014</v>
+        <v>2006011</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C235" s="6">
         <v>1</v>
@@ -6820,10 +6941,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>2006015</v>
+        <v>2006012</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C236" s="6">
         <v>1</v>
@@ -6837,10 +6958,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>2006017</v>
+        <v>2006013</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C237" s="6">
         <v>1</v>
@@ -6854,10 +6975,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>2006020</v>
+        <v>2006014</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C238" s="6">
         <v>1</v>
@@ -6871,10 +6992,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>2006022</v>
+        <v>2006015</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C239" s="6">
         <v>1</v>
@@ -6888,10 +7009,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>2007001</v>
+        <v>2006017</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C240" s="6">
         <v>1</v>
@@ -6905,10 +7026,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>2007002</v>
+        <v>2006020</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C241" s="6">
         <v>1</v>
@@ -6922,10 +7043,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>2007003</v>
+        <v>2006022</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C242" s="6">
         <v>1</v>
@@ -6939,10 +7060,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>2007004</v>
+        <v>2007001</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C243" s="6">
         <v>1</v>
@@ -6956,10 +7077,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>2007005</v>
+        <v>2007002</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C244" s="6">
         <v>1</v>
@@ -6973,10 +7094,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>2007006</v>
+        <v>2007003</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C245" s="6">
         <v>1</v>
@@ -6990,10 +7111,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>2007007</v>
+        <v>2007004</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C246" s="6">
         <v>1</v>
@@ -7007,10 +7128,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>2007008</v>
+        <v>2007005</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C247" s="6">
         <v>1</v>
@@ -7024,10 +7145,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>2007009</v>
+        <v>2007006</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C248" s="6">
         <v>1</v>
@@ -7041,10 +7162,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>2007010</v>
+        <v>2007007</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C249" s="6">
         <v>1</v>
@@ -7058,10 +7179,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>2007011</v>
+        <v>2007008</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C250" s="6">
         <v>1</v>
@@ -7075,10 +7196,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>2007012</v>
+        <v>2007009</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C251" s="6">
         <v>1</v>
@@ -7092,10 +7213,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>2007013</v>
+        <v>2007010</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C252" s="6">
         <v>1</v>
@@ -7109,10 +7230,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>2007014</v>
+        <v>2007011</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C253" s="6">
         <v>1</v>
@@ -7126,10 +7247,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>2007015</v>
+        <v>2007012</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C254" s="6">
         <v>1</v>
@@ -7143,10 +7264,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>2007016</v>
+        <v>2007013</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C255" s="6">
         <v>1</v>
@@ -7160,10 +7281,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>2007017</v>
+        <v>2007014</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C256" s="6">
         <v>1</v>
@@ -7177,10 +7298,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>2007018</v>
+        <v>2007015</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C257" s="6">
         <v>1</v>
@@ -7194,10 +7315,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>2007019</v>
+        <v>2007016</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C258" s="6">
         <v>1</v>
@@ -7211,10 +7332,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>2007020</v>
+        <v>2007017</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C259" s="6">
         <v>1</v>
@@ -7228,10 +7349,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>2007021</v>
+        <v>2007018</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C260" s="6">
         <v>1</v>
@@ -7245,10 +7366,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>2001001</v>
+        <v>2007019</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C261" s="6">
         <v>1</v>
@@ -7257,32 +7378,32 @@
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>2002001</v>
+        <v>2007020</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C262" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>2001002</v>
+        <v>2007021</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C263" s="6">
         <v>1</v>
@@ -7291,18 +7412,18 @@
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <v>2002002</v>
+        <v>2001001</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C264" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -7313,13 +7434,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>2001003</v>
+        <v>2002001</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C265" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -7330,20 +7451,16 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <v>2002003</v>
+        <v>2001002</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C266" s="6">
-        <v>6</v>
-      </c>
-      <c r="D266" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E266" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6">
         <v>3000</v>
@@ -7351,13 +7468,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>2001004</v>
+        <v>2002002</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C267" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -7368,20 +7485,16 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>2002004</v>
+        <v>2001003</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C268" s="6">
-        <v>6</v>
-      </c>
-      <c r="D268" s="6">
-        <v>4105</v>
-      </c>
-      <c r="E268" s="6">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6">
         <v>3000</v>
@@ -7389,18 +7502,20 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>2001005</v>
+        <v>2002003</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C269" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D269" s="6">
-        <v>4038</v>
-      </c>
-      <c r="E269" s="6"/>
+        <v>4007</v>
+      </c>
+      <c r="E269" s="6">
+        <v>3</v>
+      </c>
       <c r="F269" s="6"/>
       <c r="G269" s="6">
         <v>3000</v>
@@ -7408,10 +7523,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>2002005</v>
+        <v>2001004</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C270" s="6">
         <v>1</v>
@@ -7420,53 +7535,55 @@
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6">
-        <v>17500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <v>2001006</v>
+        <v>2002004</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C271" s="6">
         <v>6</v>
       </c>
       <c r="D271" s="6">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E271" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="6">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>2002006</v>
+        <v>2001005</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C272" s="6">
-        <v>11</v>
-      </c>
-      <c r="D272" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D272" s="6">
+        <v>4038</v>
+      </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <v>2001007</v>
+        <v>2002005</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C273" s="6">
         <v>1</v>
@@ -7475,66 +7592,70 @@
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6">
-        <v>2000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>2002007</v>
+        <v>2001006</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C274" s="6">
-        <v>1</v>
-      </c>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D274" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E274" s="6">
+        <v>3</v>
+      </c>
       <c r="F274" s="6"/>
       <c r="G274" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
-        <v>2001008</v>
+        <v>2002006</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C275" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>2002008</v>
+        <v>2001007</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C276" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
-        <v>2001009</v>
+        <v>2002007</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C277" s="6">
         <v>1</v>
@@ -7543,15 +7664,15 @@
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>2002009</v>
+        <v>2001008</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C278" s="6">
         <v>2</v>
@@ -7560,142 +7681,142 @@
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
-        <v>2001010</v>
+        <v>2002008</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C279" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>2002010</v>
+        <v>2001009</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C280" s="6">
-        <v>6</v>
-      </c>
-      <c r="D280" s="6">
-        <v>4103</v>
-      </c>
-      <c r="E280" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
-        <v>2001011</v>
+        <v>2002009</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C281" s="6">
-        <v>7</v>
-      </c>
-      <c r="D281" s="6">
-        <v>4101</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6">
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>2002011</v>
+        <v>2001010</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C282" s="6">
-        <v>7</v>
-      </c>
-      <c r="D282" s="6">
-        <v>4101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
-        <v>2001012</v>
+        <v>2002010</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C283" s="6">
-        <v>5</v>
-      </c>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D283" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E283" s="6">
+        <v>2</v>
+      </c>
       <c r="F283" s="6"/>
       <c r="G283" s="6">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>2002012</v>
+        <v>2001011</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C284" s="6">
-        <v>11</v>
-      </c>
-      <c r="D284" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D284" s="6">
+        <v>4101</v>
+      </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
-        <v>2001013</v>
+        <v>2002011</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C285" s="6">
-        <v>4</v>
-      </c>
-      <c r="D285" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D285" s="6">
+        <v>4101</v>
+      </c>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <v>2002013</v>
+        <v>2001012</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C286" s="6">
         <v>5</v>
@@ -7704,138 +7825,138 @@
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <v>2001014</v>
+        <v>2002012</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C287" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6">
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <v>2002014</v>
+        <v>2001013</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C288" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <v>2001015</v>
+        <v>2002013</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C289" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <v>2002015</v>
+        <v>2001014</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C290" s="6">
-        <v>6</v>
-      </c>
-      <c r="D290" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E290" s="6">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <v>2003001</v>
+        <v>2002014</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C291" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6">
-        <v>5250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <v>2003002</v>
+        <v>2001015</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C292" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <v>2003003</v>
+        <v>2002015</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C293" s="6">
-        <v>10</v>
-      </c>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D293" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E293" s="6">
+        <v>3</v>
+      </c>
       <c r="F293" s="6"/>
       <c r="G293" s="6">
-        <v>5600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <v>2003004</v>
+        <v>2003001</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C294" s="6">
         <v>10</v>
@@ -7844,189 +7965,189 @@
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6">
-        <v>5000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <v>2003005</v>
+        <v>2003002</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C295" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6">
-        <v>4500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <v>2003006</v>
+        <v>2003003</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C296" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
-      <c r="F296" s="6">
-        <v>4105</v>
-      </c>
+      <c r="F296" s="6"/>
       <c r="G296" s="6">
-        <v>6200</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <v>2003007</v>
+        <v>2003004</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C297" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
-      <c r="F297" s="6">
-        <v>4104</v>
-      </c>
+      <c r="F297" s="6"/>
       <c r="G297" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <v>2003008</v>
+        <v>2003005</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C298" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6">
-        <v>5999.9999999999991</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <v>2003009</v>
+        <v>2003006</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C299" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
+      <c r="F299" s="6">
+        <v>4105</v>
+      </c>
       <c r="G299" s="6">
-        <v>5500</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <v>2003010</v>
+        <v>2003007</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C300" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
-      <c r="F300" s="6"/>
+      <c r="F300" s="6">
+        <v>4104</v>
+      </c>
       <c r="G300" s="6">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <v>2003011</v>
+        <v>2003008</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C301" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6">
-        <v>10600</v>
+        <v>5999.9999999999991</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <v>2003012</v>
+        <v>2003009</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C302" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6">
-        <v>9000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <v>2003013</v>
+        <v>2003010</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C303" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6">
-        <v>1700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <v>2003014</v>
+        <v>2003011</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C304" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6">
-        <v>5450</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <v>2003015</v>
+        <v>2003012</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C305" s="6">
         <v>10</v>
@@ -8035,51 +8156,49 @@
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6">
-        <v>3500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <v>2003016</v>
+        <v>2003013</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C306" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6">
-        <v>7000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <v>2003017</v>
+        <v>2003014</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C307" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
-      <c r="F307" s="6">
-        <v>4101</v>
-      </c>
+      <c r="F307" s="6"/>
       <c r="G307" s="6">
-        <v>5000</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <v>2003018</v>
+        <v>2003015</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C308" s="6">
         <v>10</v>
@@ -8088,49 +8207,51 @@
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <v>2003019</v>
+        <v>2003016</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C309" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <v>2003020</v>
+        <v>2003017</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C310" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
+      <c r="F310" s="6">
+        <v>4101</v>
+      </c>
       <c r="G310" s="6">
-        <v>6100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <v>2003021</v>
+        <v>2003018</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C311" s="6">
         <v>10</v>
@@ -8139,32 +8260,32 @@
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6">
-        <v>3650</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <v>2004001</v>
+        <v>2003019</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C312" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6">
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <v>2004002</v>
+        <v>2003020</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C313" s="6">
         <v>10</v>
@@ -8173,15 +8294,15 @@
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6">
-        <v>4500</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <v>2004003</v>
+        <v>2003021</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C314" s="6">
         <v>10</v>
@@ -8190,18 +8311,18 @@
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6">
-        <v>4500</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
-        <v>2004004</v>
+        <v>2004001</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C315" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
@@ -8212,10 +8333,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
-        <v>2004005</v>
+        <v>2004002</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C316" s="6">
         <v>10</v>
@@ -8229,27 +8350,27 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
-        <v>2004006</v>
+        <v>2004003</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C317" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6">
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
-        <v>2004007</v>
+        <v>2004004</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C318" s="6">
         <v>10</v>
@@ -8258,223 +8379,223 @@
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
-        <v>2004008</v>
+        <v>2004005</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C319" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
-      <c r="F319" s="6">
-        <v>4035</v>
-      </c>
+      <c r="F319" s="6"/>
       <c r="G319" s="6">
-        <v>13000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
-        <v>2004009</v>
+        <v>2004006</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C320" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
-        <v>2004010</v>
+        <v>2004007</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C321" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
-        <v>2004011</v>
+        <v>2004008</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C322" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
-      <c r="F322" s="6"/>
+      <c r="F322" s="6">
+        <v>4035</v>
+      </c>
       <c r="G322" s="6">
-        <v>3000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
-        <v>2004012</v>
+        <v>2004009</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C323" s="6">
-        <v>7</v>
-      </c>
-      <c r="D323" s="6">
-        <v>4035</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
-        <v>2004013</v>
+        <v>2004010</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C324" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
-        <v>2004014</v>
+        <v>2004011</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C325" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <v>2004015</v>
+        <v>2004012</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C326" s="6">
-        <v>14</v>
-      </c>
-      <c r="D326" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D326" s="6">
+        <v>4035</v>
+      </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6">
-        <v>2100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
-        <v>2004016</v>
+        <v>2004013</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C327" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6">
-        <v>18000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <v>1906001</v>
+        <v>2004014</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>184</v>
+        <v>393</v>
       </c>
       <c r="C328" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
-        <v>1906002</v>
+        <v>2004015</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
       <c r="C329" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6">
-        <v>1500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <v>1906003</v>
+        <v>2004016</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>186</v>
+        <v>395</v>
       </c>
       <c r="C330" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6">
-        <v>1500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
-        <v>1906004</v>
+        <v>1906001</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C331" s="6">
         <v>1</v>
@@ -8488,10 +8609,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <v>1906005</v>
+        <v>1906002</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C332" s="6">
         <v>1</v>
@@ -8505,10 +8626,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
-        <v>1906006</v>
+        <v>1906003</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C333" s="6">
         <v>1</v>
@@ -8522,10 +8643,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <v>1906007</v>
+        <v>1906004</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C334" s="6">
         <v>1</v>
@@ -8539,10 +8660,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
-        <v>1906008</v>
+        <v>1906005</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C335" s="6">
         <v>1</v>
@@ -8556,10 +8677,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
-        <v>1906009</v>
+        <v>1906006</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C336" s="6">
         <v>1</v>
@@ -8573,10 +8694,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
-        <v>1906010</v>
+        <v>1906007</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C337" s="6">
         <v>1</v>
@@ -8590,10 +8711,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
-        <v>1906011</v>
+        <v>1906008</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C338" s="6">
         <v>1</v>
@@ -8607,10 +8728,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
-        <v>1906012</v>
+        <v>1906009</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C339" s="6">
         <v>1</v>
@@ -8624,10 +8745,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
-        <v>1906013</v>
+        <v>1906010</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C340" s="6">
         <v>1</v>
@@ -8641,10 +8762,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
-        <v>1906014</v>
+        <v>1906011</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C341" s="6">
         <v>1</v>
@@ -8658,10 +8779,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
-        <v>1906015</v>
+        <v>1906012</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C342" s="6">
         <v>1</v>
@@ -8675,10 +8796,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
-        <v>1906017</v>
+        <v>1906013</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C343" s="6">
         <v>1</v>
@@ -8692,10 +8813,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
-        <v>1906020</v>
+        <v>1906014</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C344" s="6">
         <v>1</v>
@@ -8709,10 +8830,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
-        <v>1906022</v>
+        <v>1906015</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C345" s="6">
         <v>1</v>
@@ -8726,10 +8847,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
-        <v>1907001</v>
+        <v>1906017</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C346" s="6">
         <v>1</v>
@@ -8743,10 +8864,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
-        <v>1907002</v>
+        <v>1906020</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C347" s="6">
         <v>1</v>
@@ -8760,10 +8881,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
-        <v>1907003</v>
+        <v>1906022</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C348" s="6">
         <v>1</v>
@@ -8777,10 +8898,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
-        <v>1907004</v>
+        <v>1907001</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C349" s="6">
         <v>1</v>
@@ -8794,10 +8915,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
-        <v>1907005</v>
+        <v>1907002</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C350" s="6">
         <v>1</v>
@@ -8811,10 +8932,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
-        <v>1907006</v>
+        <v>1907003</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C351" s="6">
         <v>1</v>
@@ -8828,10 +8949,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <v>1907007</v>
+        <v>1907004</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C352" s="6">
         <v>1</v>
@@ -8845,10 +8966,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
-        <v>1907008</v>
+        <v>1907005</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C353" s="6">
         <v>1</v>
@@ -8862,10 +8983,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
-        <v>1907009</v>
+        <v>1907006</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C354" s="6">
         <v>1</v>
@@ -8879,10 +9000,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
-        <v>1907010</v>
+        <v>1907007</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C355" s="6">
         <v>1</v>
@@ -8896,10 +9017,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
-        <v>1907011</v>
+        <v>1907008</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C356" s="6">
         <v>1</v>
@@ -8913,10 +9034,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
-        <v>1907012</v>
+        <v>1907009</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C357" s="6">
         <v>1</v>
@@ -8930,10 +9051,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <v>1907013</v>
+        <v>1907010</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C358" s="6">
         <v>1</v>
@@ -8947,10 +9068,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
-        <v>1907014</v>
+        <v>1907011</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C359" s="6">
         <v>1</v>
@@ -8964,10 +9085,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <v>1907015</v>
+        <v>1907012</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C360" s="6">
         <v>1</v>
@@ -8981,10 +9102,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
-        <v>1907016</v>
+        <v>1907013</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C361" s="6">
         <v>1</v>
@@ -8998,10 +9119,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <v>1907017</v>
+        <v>1907014</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C362" s="6">
         <v>1</v>
@@ -9015,10 +9136,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
-        <v>1907018</v>
+        <v>1907015</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C363" s="6">
         <v>1</v>
@@ -9032,10 +9153,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <v>1907019</v>
+        <v>1907016</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C364" s="6">
         <v>1</v>
@@ -9049,10 +9170,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
-        <v>1907020</v>
+        <v>1907017</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C365" s="6">
         <v>1</v>
@@ -9066,10 +9187,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
-        <v>1907021</v>
+        <v>1907018</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C366" s="6">
         <v>1</v>
@@ -9083,10 +9204,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
-        <v>1901001</v>
+        <v>1907019</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C367" s="6">
         <v>1</v>
@@ -9095,32 +9216,32 @@
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
-        <v>1902001</v>
+        <v>1907020</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C368" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
-        <v>1901002</v>
+        <v>1907021</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C369" s="6">
         <v>1</v>
@@ -9129,18 +9250,18 @@
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
-        <v>1902002</v>
+        <v>1901001</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C370" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
@@ -9151,13 +9272,13 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
-        <v>1901003</v>
+        <v>1902001</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C371" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
@@ -9168,20 +9289,16 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
-        <v>1902003</v>
+        <v>1901002</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C372" s="6">
-        <v>6</v>
-      </c>
-      <c r="D372" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E372" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6">
         <v>3000</v>
@@ -9189,13 +9306,13 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
-        <v>1901004</v>
+        <v>1902002</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C373" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
@@ -9206,20 +9323,16 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
-        <v>1902004</v>
+        <v>1901003</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C374" s="6">
-        <v>6</v>
-      </c>
-      <c r="D374" s="6">
-        <v>4105</v>
-      </c>
-      <c r="E374" s="6">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6">
         <v>3000</v>
@@ -9227,18 +9340,20 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
-        <v>1901005</v>
+        <v>1902003</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C375" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D375" s="6">
-        <v>4038</v>
-      </c>
-      <c r="E375" s="6"/>
+        <v>4007</v>
+      </c>
+      <c r="E375" s="6">
+        <v>3</v>
+      </c>
       <c r="F375" s="6"/>
       <c r="G375" s="6">
         <v>3000</v>
@@ -9246,10 +9361,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
-        <v>1902005</v>
+        <v>1901004</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C376" s="6">
         <v>1</v>
@@ -9258,53 +9373,55 @@
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6">
-        <v>17500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
-        <v>1901006</v>
+        <v>1902004</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C377" s="6">
         <v>6</v>
       </c>
       <c r="D377" s="6">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E377" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F377" s="6"/>
       <c r="G377" s="6">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
-        <v>1902006</v>
+        <v>1901005</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C378" s="6">
-        <v>11</v>
-      </c>
-      <c r="D378" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D378" s="6">
+        <v>4038</v>
+      </c>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
-        <v>1901007</v>
+        <v>1902005</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C379" s="6">
         <v>1</v>
@@ -9313,66 +9430,70 @@
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6">
-        <v>2000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
-        <v>1902007</v>
+        <v>1901006</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C380" s="6">
-        <v>1</v>
-      </c>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D380" s="6">
+        <v>4104</v>
+      </c>
+      <c r="E380" s="6">
+        <v>3</v>
+      </c>
       <c r="F380" s="6"/>
       <c r="G380" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
-        <v>1901008</v>
+        <v>1902006</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C381" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
-        <v>1902008</v>
+        <v>1901007</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C382" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
-        <v>1901009</v>
+        <v>1902007</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C383" s="6">
         <v>1</v>
@@ -9381,15 +9502,15 @@
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
-        <v>1902009</v>
+        <v>1901008</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C384" s="6">
         <v>2</v>
@@ -9398,142 +9519,142 @@
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
-        <v>1901010</v>
+        <v>1902008</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C385" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
-        <v>1902010</v>
+        <v>1901009</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C386" s="6">
-        <v>6</v>
-      </c>
-      <c r="D386" s="6">
-        <v>4103</v>
-      </c>
-      <c r="E386" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
-        <v>1901011</v>
+        <v>1902009</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C387" s="6">
-        <v>7</v>
-      </c>
-      <c r="D387" s="6">
-        <v>4101</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6">
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <v>1902011</v>
+        <v>1901010</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C388" s="6">
-        <v>7</v>
-      </c>
-      <c r="D388" s="6">
-        <v>4101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
-        <v>1901012</v>
+        <v>1902010</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C389" s="6">
-        <v>5</v>
-      </c>
-      <c r="D389" s="6"/>
-      <c r="E389" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D389" s="6">
+        <v>4103</v>
+      </c>
+      <c r="E389" s="6">
+        <v>2</v>
+      </c>
       <c r="F389" s="6"/>
       <c r="G389" s="6">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
-        <v>1902012</v>
+        <v>1901011</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C390" s="6">
-        <v>11</v>
-      </c>
-      <c r="D390" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D390" s="6">
+        <v>4101</v>
+      </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
-        <v>1901013</v>
+        <v>1902011</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C391" s="6">
-        <v>4</v>
-      </c>
-      <c r="D391" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D391" s="6">
+        <v>4101</v>
+      </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
-        <v>1902013</v>
+        <v>1901012</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C392" s="6">
         <v>5</v>
@@ -9542,138 +9663,138 @@
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
-        <v>1901014</v>
+        <v>1902012</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C393" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6">
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
-        <v>1902014</v>
+        <v>1901013</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C394" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
-        <v>1901015</v>
+        <v>1902013</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C395" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
-        <v>1902015</v>
+        <v>1901014</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C396" s="6">
-        <v>6</v>
-      </c>
-      <c r="D396" s="6">
-        <v>4007</v>
-      </c>
-      <c r="E396" s="6">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
-        <v>1903001</v>
+        <v>1902014</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C397" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6">
-        <v>5250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
-        <v>1903002</v>
+        <v>1901015</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C398" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
-        <v>1903003</v>
+        <v>1902015</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C399" s="6">
-        <v>10</v>
-      </c>
-      <c r="D399" s="6"/>
-      <c r="E399" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D399" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E399" s="6">
+        <v>3</v>
+      </c>
       <c r="F399" s="6"/>
       <c r="G399" s="6">
-        <v>5600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
-        <v>1903004</v>
+        <v>1903001</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C400" s="6">
         <v>10</v>
@@ -9682,189 +9803,189 @@
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="6">
-        <v>5000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
-        <v>1903005</v>
+        <v>1903002</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C401" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6">
-        <v>4500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
-        <v>1903006</v>
+        <v>1903003</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C402" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
-      <c r="F402" s="6">
-        <v>4105</v>
-      </c>
+      <c r="F402" s="6"/>
       <c r="G402" s="6">
-        <v>6200</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
-        <v>1903007</v>
+        <v>1903004</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C403" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
-      <c r="F403" s="6">
-        <v>4104</v>
-      </c>
+      <c r="F403" s="6"/>
       <c r="G403" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
-        <v>1903008</v>
+        <v>1903005</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C404" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="6">
-        <v>5999.9999999999991</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
-        <v>1903009</v>
+        <v>1903006</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C405" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
-      <c r="F405" s="6"/>
+      <c r="F405" s="6">
+        <v>4105</v>
+      </c>
       <c r="G405" s="6">
-        <v>5500</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
-        <v>1903010</v>
+        <v>1903007</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C406" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
-      <c r="F406" s="6"/>
+      <c r="F406" s="6">
+        <v>4104</v>
+      </c>
       <c r="G406" s="6">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
-        <v>1903011</v>
+        <v>1903008</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C407" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6">
-        <v>10600</v>
+        <v>5999.9999999999991</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>1903012</v>
+        <v>1903009</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C408" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6">
-        <v>9000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
-        <v>1903013</v>
+        <v>1903010</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C409" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6">
-        <v>1700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
-        <v>1903014</v>
+        <v>1903011</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C410" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="6">
-        <v>5450</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
-        <v>1903015</v>
+        <v>1903012</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C411" s="6">
         <v>10</v>
@@ -9873,51 +9994,49 @@
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6">
-        <v>3500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
-        <v>1903016</v>
+        <v>1903013</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C412" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6">
-        <v>7000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
-        <v>1903017</v>
+        <v>1903014</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C413" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
-      <c r="F413" s="6">
-        <v>4101</v>
-      </c>
+      <c r="F413" s="6"/>
       <c r="G413" s="6">
-        <v>5000</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
-        <v>1903018</v>
+        <v>1903015</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C414" s="6">
         <v>10</v>
@@ -9926,49 +10045,51 @@
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
-        <v>1903019</v>
+        <v>1903016</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C415" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
-        <v>1903020</v>
+        <v>1903017</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C416" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
-      <c r="F416" s="6"/>
+      <c r="F416" s="6">
+        <v>4101</v>
+      </c>
       <c r="G416" s="6">
-        <v>6100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
-        <v>1903021</v>
+        <v>1903018</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C417" s="6">
         <v>10</v>
@@ -9977,32 +10098,32 @@
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6">
-        <v>3650</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
-        <v>1904001</v>
+        <v>1903019</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C418" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="6">
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
-        <v>1904002</v>
+        <v>1903020</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C419" s="6">
         <v>10</v>
@@ -10011,15 +10132,15 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="6">
-        <v>4500</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
-        <v>1904003</v>
+        <v>1903021</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C420" s="6">
         <v>10</v>
@@ -10028,18 +10149,18 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="6">
-        <v>4500</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
-        <v>1904004</v>
+        <v>1904001</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C421" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
@@ -10050,10 +10171,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
-        <v>1904005</v>
+        <v>1904002</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C422" s="6">
         <v>10</v>
@@ -10067,27 +10188,27 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
-        <v>1904006</v>
+        <v>1904003</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C423" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6">
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
-        <v>1904007</v>
+        <v>1904004</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C424" s="6">
         <v>10</v>
@@ -10096,223 +10217,223 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
       <c r="G424" s="6">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
-        <v>1904008</v>
+        <v>1904005</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C425" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
-      <c r="F425" s="6">
-        <v>4035</v>
-      </c>
+      <c r="F425" s="6"/>
       <c r="G425" s="6">
-        <v>13000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
-        <v>1904009</v>
+        <v>1904006</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C426" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
-        <v>1904010</v>
+        <v>1904007</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C427" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" s="6">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
-        <v>1904011</v>
+        <v>1904008</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C428" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
-      <c r="F428" s="6"/>
+      <c r="F428" s="6">
+        <v>4035</v>
+      </c>
       <c r="G428" s="6">
-        <v>3000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
-        <v>1904012</v>
+        <v>1904009</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C429" s="6">
-        <v>7</v>
-      </c>
-      <c r="D429" s="6">
-        <v>4035</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
-        <v>1904013</v>
+        <v>1904010</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C430" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
       <c r="G430" s="6">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
-        <v>1904014</v>
+        <v>1904011</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C431" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
-        <v>1904015</v>
+        <v>1904012</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C432" s="6">
-        <v>14</v>
-      </c>
-      <c r="D432" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D432" s="6">
+        <v>4035</v>
+      </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" s="6">
-        <v>2100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
-        <v>1904016</v>
+        <v>1904013</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C433" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
       <c r="G433" s="6">
-        <v>18000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
-        <v>2201002</v>
+        <v>1904014</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>502</v>
+        <v>287</v>
       </c>
       <c r="C434" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
       <c r="G434" s="6">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
-        <v>2202002</v>
+        <v>1904015</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>503</v>
+        <v>288</v>
       </c>
       <c r="C435" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6">
-        <v>3000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
-        <v>2201007</v>
+        <v>1904016</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>504</v>
+        <v>289</v>
       </c>
       <c r="C436" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" s="6">
-        <v>3000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
-        <v>2202007</v>
+        <v>2201002</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C437" s="6">
         <v>1</v>
@@ -10326,10 +10447,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
-        <v>2201009</v>
+        <v>2202002</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C438" s="6">
         <v>1</v>
@@ -10343,10 +10464,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
-        <v>2203013</v>
+        <v>2201007</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C439" s="6">
         <v>1</v>
@@ -10360,10 +10481,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
-        <v>2203002</v>
+        <v>2202007</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C440" s="6">
         <v>1</v>
@@ -10377,10 +10498,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
-        <v>2204001</v>
+        <v>2201009</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C441" s="6">
         <v>1</v>
@@ -10394,10 +10515,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
-        <v>2204002</v>
+        <v>2203013</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C442" s="6">
         <v>1</v>
@@ -10411,10 +10532,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
-        <v>2201011</v>
+        <v>2203002</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C443" s="6">
         <v>1</v>
@@ -10428,10 +10549,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
-        <v>2201004</v>
+        <v>2204001</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C444" s="6">
         <v>1</v>
@@ -10445,10 +10566,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
-        <v>2201014</v>
+        <v>2204002</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C445" s="6">
         <v>1</v>
@@ -10462,61 +10583,61 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
-        <v>1801001</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C446" s="8">
+        <v>2201011</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C446" s="6">
         <v>1</v>
       </c>
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
-      <c r="G446" s="8">
-        <v>5000</v>
+      <c r="G446" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
-        <v>1802001</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C447" s="8">
+        <v>2201004</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C447" s="6">
         <v>1</v>
       </c>
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
-      <c r="G447" s="8">
-        <v>1000</v>
+      <c r="G447" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
-        <v>1803001</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C448" s="8">
-        <v>2</v>
+        <v>2201014</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C448" s="6">
+        <v>1</v>
       </c>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
-      <c r="G448" s="8">
-        <v>1000</v>
+      <c r="G448" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
-        <v>1801002</v>
+        <v>1801001</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C449" s="8">
         <v>1</v>
@@ -10530,10 +10651,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
-        <v>1802002</v>
+        <v>1802001</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C450" s="8">
         <v>1</v>
@@ -10542,15 +10663,15 @@
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
       <c r="G450" s="8">
-        <v>1000</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
-        <v>1803002</v>
+        <v>1803001</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C451" s="8">
         <v>2</v>
@@ -10559,15 +10680,15 @@
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="8">
-        <v>1000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
-        <v>1801003</v>
+        <v>1801002</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C452" s="8">
         <v>1</v>
@@ -10576,15 +10697,15 @@
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
       <c r="G452" s="8">
-        <v>5000</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
-        <v>1802003</v>
+        <v>1802002</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C453" s="8">
         <v>1</v>
@@ -10593,15 +10714,15 @@
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="8">
-        <v>1000</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
-        <v>1803003</v>
+        <v>1803002</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C454" s="8">
         <v>2</v>
@@ -10610,15 +10731,15 @@
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
       <c r="G454" s="8">
-        <v>1000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
-        <v>1801004</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>523</v>
+        <v>1801003</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="C455" s="8">
         <v>1</v>
@@ -10627,15 +10748,15 @@
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="8">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
-        <v>1802004</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>524</v>
+        <v>1802003</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="C456" s="8">
         <v>1</v>
@@ -10644,49 +10765,49 @@
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
       <c r="G456" s="8">
-        <v>1000</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
-        <v>1801005</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>525</v>
+        <v>1803003</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="C457" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="8">
-        <v>1000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
-        <v>1802005</v>
+        <v>1801004</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C458" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
       <c r="G458" s="8">
-        <v>1000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
-        <v>1803005</v>
+        <v>1802004</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C459" s="8">
         <v>1</v>
@@ -10695,15 +10816,15 @@
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="8">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
-        <v>1801006</v>
+        <v>1801005</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C460" s="8">
         <v>1</v>
@@ -10712,32 +10833,32 @@
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
       <c r="G460" s="8">
-        <v>1000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
-        <v>1801008</v>
+        <v>1802005</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C461" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="8">
-        <v>1000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
-        <v>1802008</v>
+        <v>1803005</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C462" s="8">
         <v>1</v>
@@ -10746,15 +10867,15 @@
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
       <c r="G462" s="8">
-        <v>1000</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
-        <v>1801009</v>
+        <v>1801006</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C463" s="8">
         <v>1</v>
@@ -10763,15 +10884,15 @@
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="8">
-        <v>1000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
-        <v>1802009</v>
+        <v>1801008</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C464" s="8">
         <v>1</v>
@@ -10780,15 +10901,15 @@
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="8">
-        <v>1000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
-        <v>1801010</v>
+        <v>1802008</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C465" s="8">
         <v>1</v>
@@ -10797,15 +10918,15 @@
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="8">
-        <v>1000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
-        <v>1801011</v>
-      </c>
-      <c r="B466" s="4" t="s">
-        <v>534</v>
+        <v>1801009</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C466" s="8">
         <v>1</v>
@@ -10814,15 +10935,15 @@
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="8">
-        <v>5000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
-        <v>1802011</v>
-      </c>
-      <c r="B467" s="4" t="s">
-        <v>535</v>
+        <v>1802009</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="C467" s="8">
         <v>1</v>
@@ -10831,32 +10952,32 @@
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="8">
-        <v>1000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
-        <v>1803011</v>
-      </c>
-      <c r="B468" s="4" t="s">
-        <v>536</v>
+        <v>1801010</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="C468" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="8">
-        <v>1000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
-        <v>1801012</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>537</v>
+        <v>1801011</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="C469" s="8">
         <v>1</v>
@@ -10865,15 +10986,15 @@
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="8">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
-        <v>1802012</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>538</v>
+        <v>1802011</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="C470" s="8">
         <v>1</v>
@@ -10882,15 +11003,15 @@
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
       <c r="G470" s="8">
-        <v>1000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
-        <v>1803012</v>
+        <v>1803011</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C471" s="8">
         <v>2</v>
@@ -10899,30 +11020,510 @@
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="8">
-        <v>1000</v>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>1801012</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C472" s="8">
+        <v>1</v>
+      </c>
+      <c r="D472" s="6"/>
+      <c r="E472" s="6"/>
+      <c r="F472" s="6"/>
+      <c r="G472" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473" s="3">
+        <v>1802012</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C473" s="8">
+        <v>1</v>
+      </c>
+      <c r="D473" s="6"/>
+      <c r="E473" s="6"/>
+      <c r="F473" s="6"/>
+      <c r="G473" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>1803012</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C474" s="8">
+        <v>11</v>
+      </c>
+      <c r="D474" s="6"/>
+      <c r="E474" s="6"/>
+      <c r="F474" s="6"/>
+      <c r="G474" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" s="3">
+        <v>1304017</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C475" s="8">
+        <v>15</v>
+      </c>
+      <c r="D475" s="6"/>
+      <c r="E475" s="6"/>
+      <c r="F475" s="6"/>
+      <c r="G475" s="8">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>1304018</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C476" s="8">
+        <v>15</v>
+      </c>
+      <c r="D476" s="6"/>
+      <c r="E476" s="6"/>
+      <c r="F476" s="6"/>
+      <c r="G476" s="8">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" s="3">
+        <v>1304019</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C477" s="8">
+        <v>10</v>
+      </c>
+      <c r="D477" s="6"/>
+      <c r="E477" s="6"/>
+      <c r="F477" s="6"/>
+      <c r="G477" s="8">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>1304020</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C478" s="8">
+        <v>10</v>
+      </c>
+      <c r="D478" s="6"/>
+      <c r="E478" s="6"/>
+      <c r="F478" s="6"/>
+      <c r="G478" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" s="3">
+        <v>1304021</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C479" s="8">
+        <v>15</v>
+      </c>
+      <c r="D479" s="6"/>
+      <c r="E479" s="6"/>
+      <c r="F479" s="6"/>
+      <c r="G479" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>1304022</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C480" s="8">
+        <v>10</v>
+      </c>
+      <c r="D480" s="6"/>
+      <c r="E480" s="6"/>
+      <c r="F480" s="6"/>
+      <c r="G480" s="8">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>1304023</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C481" s="8">
+        <v>10</v>
+      </c>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
+      <c r="G481" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>1304024</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C482" s="8">
+        <v>15</v>
+      </c>
+      <c r="D482" s="6"/>
+      <c r="E482" s="6"/>
+      <c r="F482" s="6"/>
+      <c r="G482" s="8">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" s="3">
+        <v>1304025</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C483" s="8">
+        <v>15</v>
+      </c>
+      <c r="D483" s="6"/>
+      <c r="E483" s="6"/>
+      <c r="F483" s="6"/>
+      <c r="G483" s="8">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" s="3">
+        <v>1304026</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C484" s="8">
+        <v>15</v>
+      </c>
+      <c r="D484" s="6"/>
+      <c r="E484" s="6"/>
+      <c r="F484" s="6"/>
+      <c r="G484" s="8">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" s="3">
+        <v>1304027</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C485" s="8">
+        <v>15</v>
+      </c>
+      <c r="D485" s="6"/>
+      <c r="E485" s="6"/>
+      <c r="F485" s="6"/>
+      <c r="G485" s="8">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" s="3">
+        <v>1304028</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C486" s="8">
+        <v>15</v>
+      </c>
+      <c r="D486" s="6"/>
+      <c r="E486" s="6"/>
+      <c r="F486" s="6"/>
+      <c r="G486" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" s="3">
+        <v>1304029</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C487" s="8">
+        <v>15</v>
+      </c>
+      <c r="D487" s="6"/>
+      <c r="E487" s="6"/>
+      <c r="F487" s="6"/>
+      <c r="G487" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" s="3">
+        <v>1304030</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C488" s="8">
+        <v>15</v>
+      </c>
+      <c r="D488" s="6"/>
+      <c r="E488" s="6"/>
+      <c r="F488" s="6"/>
+      <c r="G488" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" s="3">
+        <v>1304031</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C489" s="8">
+        <v>15</v>
+      </c>
+      <c r="D489" s="6"/>
+      <c r="E489" s="6"/>
+      <c r="F489" s="6"/>
+      <c r="G489" s="8">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" s="3">
+        <v>1304032</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C490" s="8">
+        <v>10</v>
+      </c>
+      <c r="D490" s="6"/>
+      <c r="E490" s="6"/>
+      <c r="F490" s="6"/>
+      <c r="G490" s="8">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" s="3">
+        <v>1304033</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C491" s="8">
+        <v>10</v>
+      </c>
+      <c r="D491" s="6"/>
+      <c r="E491" s="6"/>
+      <c r="F491" s="6"/>
+      <c r="G491" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>1304034</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C492" s="8">
+        <v>10</v>
+      </c>
+      <c r="D492" s="6"/>
+      <c r="E492" s="6"/>
+      <c r="F492" s="6"/>
+      <c r="G492" s="8">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
+        <v>1304035</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C493" s="8">
+        <v>11</v>
+      </c>
+      <c r="D493" s="6"/>
+      <c r="E493" s="6"/>
+      <c r="F493" s="6"/>
+      <c r="G493" s="8">
+        <v>5399.9999999999991</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>1304036</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C494" s="8">
+        <v>11</v>
+      </c>
+      <c r="D494" s="6"/>
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
+      <c r="G494" s="8">
+        <v>5699.9999999999991</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" s="3">
+        <v>1304037</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C495" s="8">
+        <v>11</v>
+      </c>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
+      <c r="G495" s="8">
+        <v>5649.9999999999991</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>1304038</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C496" s="8">
+        <v>11</v>
+      </c>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="8">
+        <v>5699.9999999999991</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="3">
+        <v>1304039</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C497" s="8">
+        <v>12</v>
+      </c>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
+      <c r="G497" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="3">
+        <v>1304040</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C498" s="8">
+        <v>12</v>
+      </c>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="8">
+        <v>5399.9999999999991</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" s="3">
+        <v>1304041</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C499" s="8">
+        <v>11</v>
+      </c>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
+      <c r="G499" s="8">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A433 A472:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="A500:A1048576 A4:A78 A81:A101 A103:A436">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A222:A327">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="A225:A330">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A328:A433">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="A331:A436">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A434:A445">
+  <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A437:A448">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A434:A445">
+  <conditionalFormatting sqref="A449:A474">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A446:A471">
+  <conditionalFormatting sqref="A475:A499">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E274A-47C8-4379-B74D-7CE0A33CB149}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BBA8A-06F3-4BC5-BA53-87FD5EC0FBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2840,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
   <dimension ref="A1:G499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="K460" sqref="K460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4255,7 +4255,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6">
-        <v>3000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -11071,7 +11071,7 @@
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
       <c r="G474" s="8">
-        <v>6000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BBA8A-06F3-4BC5-BA53-87FD5EC0FBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083A34A-D526-4342-BE9F-3A0ED02CDE83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="574">
   <si>
     <t>sheet名</t>
   </si>
@@ -1854,6 +1854,30 @@
   </si>
   <si>
     <t>山蜘蛛技能3治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物食火蜥伤害抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物西方龙反伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用获得水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物伏尸将军禁止技能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2055,7 +2079,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2077,6 +2101,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2093,7 +2123,27 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2568,7 +2618,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2838,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G499"/>
+  <dimension ref="A1:G505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="K460" sqref="K460"/>
+    <sheetView topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="O491" sqref="O491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -11499,27 +11549,135 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" s="9">
+        <v>1804012</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C500" s="8">
+        <v>12</v>
+      </c>
+      <c r="D500" s="6"/>
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
+      <c r="G500" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" s="9">
+        <v>1805001</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C501" s="8">
+        <v>12</v>
+      </c>
+      <c r="D501" s="6"/>
+      <c r="E501" s="6"/>
+      <c r="F501" s="6"/>
+      <c r="G501" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" s="3">
+        <v>1803008</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C502" s="8">
+        <v>14</v>
+      </c>
+      <c r="D502" s="6"/>
+      <c r="E502" s="6"/>
+      <c r="F502" s="6"/>
+      <c r="G502" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" s="9">
+        <v>1807001</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C503" s="8">
+        <v>1</v>
+      </c>
+      <c r="D503" s="6"/>
+      <c r="E503" s="6"/>
+      <c r="F503" s="6"/>
+      <c r="G503" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" s="9">
+        <v>1808001</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C504" s="8">
+        <v>2</v>
+      </c>
+      <c r="D504" s="6"/>
+      <c r="E504" s="6"/>
+      <c r="F504" s="6"/>
+      <c r="G504" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" s="9">
+        <v>1809001</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C505" s="8">
+        <v>1</v>
+      </c>
+      <c r="D505" s="6"/>
+      <c r="E505" s="6"/>
+      <c r="F505" s="6"/>
+      <c r="G505" s="8">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A500:A1048576 A4:A78 A81:A101 A103:A436">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A506:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:A330">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A436">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A449:A474">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A437:A448">
+  <conditionalFormatting sqref="A475:A499">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A449:A474">
+  <conditionalFormatting sqref="A501 A503:A505">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A475:A499">
+  <conditionalFormatting sqref="A502">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11531,8 +11689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11590,7 +11748,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="6">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>52</v>
@@ -11604,7 +11762,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="6">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>53</v>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083A34A-D526-4342-BE9F-3A0ED02CDE83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76702C-A129-4DEB-BBF2-C8150277D2D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="586">
   <si>
     <t>sheet名</t>
   </si>
@@ -1878,6 +1878,54 @@
   </si>
   <si>
     <t>怪物伏尸将军禁止技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物带吸血攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物单体治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物减防攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击并持续掉血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出场免伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物主动免伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出场吸收护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物主动吸收护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物击杀后连续行动攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物主动反弹伤害buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物被动不行动受伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物被动最后行动被禁锢</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2123,7 +2171,17 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2888,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G505"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="O491" sqref="O491"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="F507" sqref="F507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -11651,33 +11709,240 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" s="9">
+        <v>1810001</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C506" s="8">
+        <v>1</v>
+      </c>
+      <c r="D506" s="6"/>
+      <c r="E506" s="6"/>
+      <c r="F506" s="6"/>
+      <c r="G506" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" s="9">
+        <v>1811001</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C507" s="8">
+        <v>1</v>
+      </c>
+      <c r="D507" s="6"/>
+      <c r="E507" s="6"/>
+      <c r="F507" s="6"/>
+      <c r="G507" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" s="9">
+        <v>1812001</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C508" s="8">
+        <v>1</v>
+      </c>
+      <c r="D508" s="6"/>
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
+      <c r="G508" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" s="9">
+        <v>1813001</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C509" s="8">
+        <v>1</v>
+      </c>
+      <c r="D509" s="6"/>
+      <c r="E509" s="6"/>
+      <c r="F509" s="6"/>
+      <c r="G509" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" s="9">
+        <v>1814001</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C510" s="8">
+        <v>1</v>
+      </c>
+      <c r="D510" s="6"/>
+      <c r="E510" s="6"/>
+      <c r="F510" s="6"/>
+      <c r="G510" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" s="9">
+        <v>1815001</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C511" s="8">
+        <v>1</v>
+      </c>
+      <c r="D511" s="6"/>
+      <c r="E511" s="6"/>
+      <c r="F511" s="6"/>
+      <c r="G511" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" s="9">
+        <v>1816001</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C512" s="8">
+        <v>1</v>
+      </c>
+      <c r="D512" s="6"/>
+      <c r="E512" s="6"/>
+      <c r="F512" s="6"/>
+      <c r="G512" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" s="9">
+        <v>1817001</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C513" s="8">
+        <v>1</v>
+      </c>
+      <c r="D513" s="6"/>
+      <c r="E513" s="6"/>
+      <c r="F513" s="6"/>
+      <c r="G513" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" s="9">
+        <v>1818001</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C514" s="8">
+        <v>1</v>
+      </c>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
+      <c r="G514" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" s="9">
+        <v>1819001</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C515" s="8">
+        <v>1</v>
+      </c>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
+      <c r="G515" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" s="9">
+        <v>1820001</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C516" s="8">
+        <v>1</v>
+      </c>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+      <c r="G516" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" s="9">
+        <v>1821001</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C517" s="8">
+        <v>1</v>
+      </c>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
+      <c r="G517" s="8">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A506:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A518:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:A330">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A436">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A437:A448">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A437:A448">
+  <conditionalFormatting sqref="A449:A474">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A449:A474">
+  <conditionalFormatting sqref="A475:A499">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A475:A499">
+  <conditionalFormatting sqref="A501 A503:A505">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A501 A503:A505">
+  <conditionalFormatting sqref="A502">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A502">
+  <conditionalFormatting sqref="A506:A517">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11689,8 +11954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76702C-A129-4DEB-BBF2-C8150277D2D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02513A1-743D-40D6-B534-177F0E424374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="594">
   <si>
     <t>sheet名</t>
   </si>
@@ -1926,6 +1926,38 @@
   </si>
   <si>
     <t>怪物被动最后行动被禁锢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关食火蜥免伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章BOSS免伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章第9关护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关塞伯罗斯加攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章3关伤害增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章6关持续回血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章第9关免伤护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章BOSS伤害增幅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2203,97 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2946,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="F507" sqref="F507"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -11913,36 +12035,175 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" s="9">
+        <v>1822001</v>
+      </c>
+      <c r="B518" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C518" s="8">
+        <v>12</v>
+      </c>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
+      <c r="G518" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" s="9">
+        <v>1823001</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C519" s="8">
+        <v>12</v>
+      </c>
+      <c r="D519" s="6"/>
+      <c r="E519" s="6"/>
+      <c r="F519" s="6"/>
+      <c r="G519" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" s="9">
+        <v>1824001</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C520" s="8">
+        <v>12</v>
+      </c>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+      <c r="G520" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" s="9">
+        <v>1825001</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C521" s="8">
+        <v>1</v>
+      </c>
+      <c r="D521" s="6"/>
+      <c r="E521" s="6"/>
+      <c r="F521" s="6"/>
+      <c r="G521" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" s="9">
+        <v>1826001</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C522" s="8">
+        <v>1</v>
+      </c>
+      <c r="D522" s="6"/>
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
+      <c r="G522" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" s="9">
+        <v>1827001</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C523" s="8">
+        <v>1</v>
+      </c>
+      <c r="D523" s="6"/>
+      <c r="E523" s="6"/>
+      <c r="F523" s="6"/>
+      <c r="G523" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" s="9">
+        <v>1828001</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C524" s="8">
+        <v>1</v>
+      </c>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
+      <c r="G524" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" s="9">
+        <v>1829001</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C525" s="8">
+        <v>1</v>
+      </c>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+      <c r="F525" s="6"/>
+      <c r="G525" s="8">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A518:A1048576">
+  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A526:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:A330">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A331:A436">
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A437:A448">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A449:A474">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A475:A499">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A501 A503:A505">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A502">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A506:A517">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A225:A330">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A331:A436">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A437:A448">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A437:A448">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A449:A474">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A475:A499">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A501 A503:A505">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A502">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A506:A517">
+  <conditionalFormatting sqref="A518:A525">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/ai.AI配置.xlsx
+++ b/Excel/镇魂街/ai.AI配置.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02513A1-743D-40D6-B534-177F0E424374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B1478-76D3-4893-BBF3-881676937E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="610">
   <si>
     <t>sheet名</t>
   </si>
@@ -1958,6 +1958,70 @@
   </si>
   <si>
     <t>第三章BOSS伤害增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章教学关行动buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章第3关首位禁锢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章第9关末位减少防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章BOSS普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章BOSS群体攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章BOSS末位禁锢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章教学关加攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章第3关持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章第6关延迟伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章第9关持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章BOSS灼烧技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章BOSS大招伤害并禁锢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章第3关持续回血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章第6关被动攻击提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章第2关加攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章第6关加血</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2203,57 +2267,7 @@
     <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2798,7 +2812,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3068,15 +3082,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
-  <dimension ref="A1:G525"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
@@ -4456,7 +4470,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1301041</v>
+        <v>1301042</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>564</v>
@@ -4473,7 +4487,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1302041</v>
+        <v>1302042</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>565</v>
@@ -10876,7 +10890,7 @@
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="8">
-        <v>5000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
@@ -10892,8 +10906,8 @@
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
-      <c r="G450" s="8">
-        <v>4900</v>
+      <c r="G450" s="6">
+        <v>3200</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
@@ -10910,7 +10924,7 @@
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="8">
-        <v>4800</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
@@ -10926,8 +10940,8 @@
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
-      <c r="G452" s="8">
-        <v>4700</v>
+      <c r="G452" s="6">
+        <v>3400</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
@@ -10944,7 +10958,7 @@
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="8">
-        <v>4600</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
@@ -10960,8 +10974,8 @@
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
-      <c r="G454" s="8">
-        <v>4500</v>
+      <c r="G454" s="6">
+        <v>3600</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
@@ -10978,7 +10992,7 @@
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="8">
-        <v>4400</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
@@ -10994,8 +11008,8 @@
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
-      <c r="G456" s="8">
-        <v>4300</v>
+      <c r="G456" s="6">
+        <v>3800</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
@@ -11012,7 +11026,7 @@
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="8">
-        <v>4200</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
@@ -11028,8 +11042,8 @@
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
-      <c r="G458" s="8">
-        <v>4100</v>
+      <c r="G458" s="6">
+        <v>4000</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
@@ -11046,7 +11060,7 @@
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="8">
-        <v>4000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
@@ -11062,8 +11076,8 @@
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
-      <c r="G460" s="8">
-        <v>3900</v>
+      <c r="G460" s="6">
+        <v>4200</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
@@ -11080,7 +11094,7 @@
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="8">
-        <v>3800</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -11096,8 +11110,8 @@
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
-      <c r="G462" s="8">
-        <v>3700</v>
+      <c r="G462" s="6">
+        <v>4400</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
@@ -11114,7 +11128,7 @@
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="8">
-        <v>3600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
@@ -11130,8 +11144,8 @@
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
-      <c r="G464" s="8">
-        <v>3500</v>
+      <c r="G464" s="6">
+        <v>4600</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
@@ -11148,7 +11162,7 @@
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="8">
-        <v>3400</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
@@ -11164,8 +11178,8 @@
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
-      <c r="G466" s="8">
-        <v>3300</v>
+      <c r="G466" s="6">
+        <v>4800</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
@@ -11182,7 +11196,7 @@
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="8">
-        <v>3200</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
@@ -11198,8 +11212,8 @@
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
-      <c r="G468" s="8">
-        <v>3100</v>
+      <c r="G468" s="6">
+        <v>5000</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
@@ -11216,7 +11230,7 @@
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="8">
-        <v>3000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
@@ -11232,8 +11246,8 @@
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
-      <c r="G470" s="8">
-        <v>2900</v>
+      <c r="G470" s="6">
+        <v>5200</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
@@ -11250,7 +11264,7 @@
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="8">
-        <v>2800</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
@@ -11266,8 +11280,8 @@
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
-      <c r="G472" s="8">
-        <v>6000</v>
+      <c r="G472" s="6">
+        <v>5400</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
@@ -11284,7 +11298,7 @@
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
       <c r="G473" s="8">
-        <v>6000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
@@ -11300,8 +11314,8 @@
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
-      <c r="G474" s="8">
-        <v>5500</v>
+      <c r="G474" s="6">
+        <v>5600</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
@@ -12066,7 +12080,7 @@
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
       <c r="G519" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -12083,7 +12097,7 @@
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
       <c r="G520" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
@@ -12100,7 +12114,7 @@
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
       <c r="G521" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -12117,7 +12131,7 @@
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
       <c r="G522" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -12134,7 +12148,7 @@
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
       <c r="G523" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
@@ -12151,7 +12165,7 @@
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
       <c r="G524" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -12168,42 +12182,323 @@
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
       <c r="G525" s="8">
-        <v>10000</v>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" s="9">
+        <v>1830001</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C526" s="8">
+        <v>1</v>
+      </c>
+      <c r="D526" s="6"/>
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
+      <c r="G526" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" s="9">
+        <v>1831001</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C527" s="8">
+        <v>1</v>
+      </c>
+      <c r="D527" s="6"/>
+      <c r="E527" s="6"/>
+      <c r="F527" s="6"/>
+      <c r="G527" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" s="9">
+        <v>1832001</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C528" s="8">
+        <v>1</v>
+      </c>
+      <c r="D528" s="6"/>
+      <c r="E528" s="6"/>
+      <c r="F528" s="6"/>
+      <c r="G528" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" s="9">
+        <v>1833001</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C529" s="8">
+        <v>1</v>
+      </c>
+      <c r="D529" s="6"/>
+      <c r="E529" s="6"/>
+      <c r="F529" s="6"/>
+      <c r="G529" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" s="9">
+        <v>1834001</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C530" s="8">
+        <v>1</v>
+      </c>
+      <c r="D530" s="6"/>
+      <c r="E530" s="6"/>
+      <c r="F530" s="6"/>
+      <c r="G530" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" s="9">
+        <v>1835001</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C531" s="8">
+        <v>1</v>
+      </c>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+      <c r="F531" s="6"/>
+      <c r="G531" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" s="9">
+        <v>1836001</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C532" s="8">
+        <v>1</v>
+      </c>
+      <c r="D532" s="6"/>
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
+      <c r="G532" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" s="9">
+        <v>1837001</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C533" s="8">
+        <v>1</v>
+      </c>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+      <c r="F533" s="6"/>
+      <c r="G533" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" s="9">
+        <v>1838001</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C534" s="8">
+        <v>1</v>
+      </c>
+      <c r="D534" s="6"/>
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
+      <c r="G534" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" s="9">
+        <v>1839001</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C535" s="8">
+        <v>1</v>
+      </c>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
+      <c r="G535" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" s="9">
+        <v>1840001</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C536" s="8">
+        <v>1</v>
+      </c>
+      <c r="D536" s="6"/>
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
+      <c r="G536" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" s="9">
+        <v>1841001</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C537" s="8">
+        <v>1</v>
+      </c>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+      <c r="F537" s="6"/>
+      <c r="G537" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" s="9">
+        <v>1842001</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C538" s="8">
+        <v>1</v>
+      </c>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
+      <c r="G538" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" s="9">
+        <v>1843001</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C539" s="8">
+        <v>1</v>
+      </c>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+      <c r="F539" s="6"/>
+      <c r="G539" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" s="9">
+        <v>1844001</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C540" s="8">
+        <v>1</v>
+      </c>
+      <c r="D540" s="6"/>
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
+      <c r="G540" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" s="9">
+        <v>1845002</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C541" s="8">
+        <v>1</v>
+      </c>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+      <c r="F541" s="6"/>
+      <c r="G541" s="8">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A526:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  <conditionalFormatting sqref="A500 A4:A78 A81:A101 A103:A436 A542:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:A330">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A436">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A437:A448">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A437:A448">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A449:A474">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A475:A499">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A501 A503:A505">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A506:A517">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A518:A525">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A526:A537">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A538">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A539:A541">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12216,7 +12511,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
